--- a/PROYECTO MR/HU_SO.AC.03 Modificar autorización/PPS- MR 2.0 FASE 4 - HU_SO.AC.03 Modificar autorización_v2.xlsx
+++ b/PROYECTO MR/HU_SO.AC.03 Modificar autorización/PPS- MR 2.0 FASE 4 - HU_SO.AC.03 Modificar autorización_v2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documento VUCE\DocumentoVuce\PROYECTO MR\HU_SO.AC.03 Modificar autorización\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\HU_SO.AC.03 Modificar autorización\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E36B5E7-BAD3-48A2-BB8D-54D1A17930AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Formato 1.0 " sheetId="5" state="hidden" r:id="rId1"/>
@@ -33,7 +32,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Formato 1.0'!$1:$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Formato 1.0 '!$1:$13</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="336">
   <si>
     <t>PLAN DE PRUEBAS DE SISTEMAS</t>
   </si>
@@ -2199,11 +2198,14 @@
   <si>
     <t>Entonces el sistema cierra la cortinilla y regresa a la bandeja "Consulta de elementos del catálogo”.</t>
   </si>
+  <si>
+    <t>,,,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3139,53 +3141,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3205,34 +3162,100 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3256,22 +3279,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3282,6 +3296,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3310,15 +3333,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3345,6 +3359,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3379,110 +3402,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3502,8 +3456,56 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3523,7 +3525,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -34698,7 +34700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE48EE09-E661-402D-BA1B-A100D489DD1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AX79"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -34745,373 +34747,373 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J3" s="162" t="s">
+      <c r="J3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="162"/>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="162"/>
-      <c r="AJ3" s="162"/>
-      <c r="AK3" s="162"/>
-      <c r="AL3" s="162"/>
-      <c r="AM3" s="162"/>
-      <c r="AN3" s="162"/>
-      <c r="AO3" s="162"/>
-      <c r="AP3" s="162"/>
-      <c r="AQ3" s="162"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="97"/>
       <c r="AR3" s="38"/>
       <c r="AS3" s="38"/>
     </row>
     <row r="4" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="162"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="162"/>
-      <c r="U4" s="162"/>
-      <c r="V4" s="162"/>
-      <c r="W4" s="162"/>
-      <c r="X4" s="162"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="162"/>
-      <c r="AA4" s="162"/>
-      <c r="AB4" s="162"/>
-      <c r="AC4" s="162"/>
-      <c r="AD4" s="162"/>
-      <c r="AE4" s="162"/>
-      <c r="AF4" s="162"/>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="162"/>
-      <c r="AL4" s="162"/>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="162"/>
-      <c r="AO4" s="162"/>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
       <c r="AR4" s="38"/>
       <c r="AS4" s="38"/>
     </row>
     <row r="5" spans="1:45" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="163" t="s">
+      <c r="I7" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="163"/>
-      <c r="V7" s="163"/>
-      <c r="W7" s="163"/>
-      <c r="X7" s="163"/>
-      <c r="Y7" s="163"/>
-      <c r="Z7" s="163"/>
-      <c r="AA7" s="163"/>
-      <c r="AB7" s="163"/>
-      <c r="AC7" s="163"/>
-      <c r="AD7" s="163"/>
-      <c r="AE7" s="163"/>
-      <c r="AF7" s="163"/>
-      <c r="AG7" s="163"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="163"/>
-      <c r="AJ7" s="163"/>
-      <c r="AK7" s="163"/>
-      <c r="AL7" s="163"/>
-      <c r="AM7" s="163"/>
-      <c r="AN7" s="163"/>
-      <c r="AO7" s="163"/>
-      <c r="AP7" s="163"/>
-      <c r="AQ7" s="163"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="98"/>
+      <c r="AP7" s="98"/>
+      <c r="AQ7" s="98"/>
       <c r="AR7" s="40"/>
       <c r="AS7" s="40"/>
     </row>
     <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="164" t="s">
+      <c r="I8" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="165"/>
-      <c r="K8" s="164" t="s">
+      <c r="J8" s="100"/>
+      <c r="K8" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="165"/>
-      <c r="M8" s="164" t="s">
+      <c r="L8" s="100"/>
+      <c r="M8" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
-      <c r="T8" s="166"/>
-      <c r="U8" s="166"/>
-      <c r="V8" s="166"/>
-      <c r="W8" s="166"/>
-      <c r="X8" s="166"/>
-      <c r="Y8" s="166"/>
-      <c r="Z8" s="166"/>
-      <c r="AA8" s="166"/>
-      <c r="AB8" s="166"/>
-      <c r="AC8" s="166"/>
-      <c r="AD8" s="166"/>
-      <c r="AE8" s="166"/>
-      <c r="AF8" s="166"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="164" t="s">
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="100"/>
+      <c r="AH8" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="AI8" s="166"/>
-      <c r="AJ8" s="166"/>
-      <c r="AK8" s="166"/>
-      <c r="AL8" s="166"/>
-      <c r="AM8" s="166"/>
-      <c r="AN8" s="166"/>
-      <c r="AO8" s="166"/>
-      <c r="AP8" s="166"/>
-      <c r="AQ8" s="165"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="101"/>
+      <c r="AN8" s="101"/>
+      <c r="AO8" s="101"/>
+      <c r="AP8" s="101"/>
+      <c r="AQ8" s="100"/>
       <c r="AR8" s="40"/>
       <c r="AS8" s="40"/>
     </row>
     <row r="9" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="173">
+      <c r="I9" s="114">
         <v>45292</v>
       </c>
-      <c r="J9" s="174"/>
-      <c r="K9" s="175" t="s">
+      <c r="J9" s="115"/>
+      <c r="K9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="176"/>
-      <c r="M9" s="177" t="s">
+      <c r="L9" s="117"/>
+      <c r="M9" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="178"/>
-      <c r="S9" s="178"/>
-      <c r="T9" s="178"/>
-      <c r="U9" s="178"/>
-      <c r="V9" s="178"/>
-      <c r="W9" s="178"/>
-      <c r="X9" s="178"/>
-      <c r="Y9" s="178"/>
-      <c r="Z9" s="178"/>
-      <c r="AA9" s="178"/>
-      <c r="AB9" s="178"/>
-      <c r="AC9" s="178"/>
-      <c r="AD9" s="178"/>
-      <c r="AE9" s="178"/>
-      <c r="AF9" s="178"/>
-      <c r="AG9" s="179"/>
-      <c r="AH9" s="177" t="s">
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="119"/>
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="119"/>
+      <c r="AC9" s="119"/>
+      <c r="AD9" s="119"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="119"/>
+      <c r="AG9" s="120"/>
+      <c r="AH9" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="AI9" s="178"/>
-      <c r="AJ9" s="178"/>
-      <c r="AK9" s="178"/>
-      <c r="AL9" s="178"/>
-      <c r="AM9" s="178"/>
-      <c r="AN9" s="178"/>
-      <c r="AO9" s="178"/>
-      <c r="AP9" s="178"/>
-      <c r="AQ9" s="179"/>
+      <c r="AI9" s="119"/>
+      <c r="AJ9" s="119"/>
+      <c r="AK9" s="119"/>
+      <c r="AL9" s="119"/>
+      <c r="AM9" s="119"/>
+      <c r="AN9" s="119"/>
+      <c r="AO9" s="119"/>
+      <c r="AP9" s="119"/>
+      <c r="AQ9" s="120"/>
       <c r="AR9" s="40"/>
       <c r="AS9" s="40"/>
     </row>
     <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="119"/>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="119"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="119"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="119"/>
-      <c r="AF10" s="119"/>
-      <c r="AG10" s="120"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="119"/>
-      <c r="AJ10" s="119"/>
-      <c r="AK10" s="119"/>
-      <c r="AL10" s="119"/>
-      <c r="AM10" s="119"/>
-      <c r="AN10" s="119"/>
-      <c r="AO10" s="119"/>
-      <c r="AP10" s="119"/>
-      <c r="AQ10" s="120"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="127"/>
+      <c r="AH10" s="125"/>
+      <c r="AI10" s="126"/>
+      <c r="AJ10" s="126"/>
+      <c r="AK10" s="126"/>
+      <c r="AL10" s="126"/>
+      <c r="AM10" s="126"/>
+      <c r="AN10" s="126"/>
+      <c r="AO10" s="126"/>
+      <c r="AP10" s="126"/>
+      <c r="AQ10" s="127"/>
       <c r="AR10" s="40"/>
       <c r="AS10" s="40"/>
     </row>
     <row r="11" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="119"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="119"/>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="119"/>
-      <c r="AF11" s="119"/>
-      <c r="AG11" s="120"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="119"/>
-      <c r="AJ11" s="119"/>
-      <c r="AK11" s="119"/>
-      <c r="AL11" s="119"/>
-      <c r="AM11" s="119"/>
-      <c r="AN11" s="119"/>
-      <c r="AO11" s="119"/>
-      <c r="AP11" s="119"/>
-      <c r="AQ11" s="120"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="126"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="126"/>
+      <c r="Y11" s="126"/>
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="126"/>
+      <c r="AB11" s="126"/>
+      <c r="AC11" s="126"/>
+      <c r="AD11" s="126"/>
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="126"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="126"/>
+      <c r="AJ11" s="126"/>
+      <c r="AK11" s="126"/>
+      <c r="AL11" s="126"/>
+      <c r="AM11" s="126"/>
+      <c r="AN11" s="126"/>
+      <c r="AO11" s="126"/>
+      <c r="AP11" s="126"/>
+      <c r="AQ11" s="127"/>
       <c r="AR11" s="41"/>
       <c r="AS11" s="41"/>
     </row>
     <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="119"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="119"/>
-      <c r="Z12" s="119"/>
-      <c r="AA12" s="119"/>
-      <c r="AB12" s="119"/>
-      <c r="AC12" s="119"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="119"/>
-      <c r="AF12" s="119"/>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="119"/>
-      <c r="AJ12" s="119"/>
-      <c r="AK12" s="119"/>
-      <c r="AL12" s="119"/>
-      <c r="AM12" s="119"/>
-      <c r="AN12" s="119"/>
-      <c r="AO12" s="119"/>
-      <c r="AP12" s="119"/>
-      <c r="AQ12" s="120"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
+      <c r="S12" s="126"/>
+      <c r="T12" s="126"/>
+      <c r="U12" s="126"/>
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="126"/>
+      <c r="AB12" s="126"/>
+      <c r="AC12" s="126"/>
+      <c r="AD12" s="126"/>
+      <c r="AE12" s="126"/>
+      <c r="AF12" s="126"/>
+      <c r="AG12" s="127"/>
+      <c r="AH12" s="125"/>
+      <c r="AI12" s="126"/>
+      <c r="AJ12" s="126"/>
+      <c r="AK12" s="126"/>
+      <c r="AL12" s="126"/>
+      <c r="AM12" s="126"/>
+      <c r="AN12" s="126"/>
+      <c r="AO12" s="126"/>
+      <c r="AP12" s="126"/>
+      <c r="AQ12" s="127"/>
       <c r="AR12" s="41"/>
       <c r="AS12" s="16"/>
     </row>
     <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="119"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="119"/>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="119"/>
-      <c r="AF13" s="119"/>
-      <c r="AG13" s="120"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="119"/>
-      <c r="AJ13" s="119"/>
-      <c r="AK13" s="119"/>
-      <c r="AL13" s="119"/>
-      <c r="AM13" s="119"/>
-      <c r="AN13" s="119"/>
-      <c r="AO13" s="119"/>
-      <c r="AP13" s="119"/>
-      <c r="AQ13" s="120"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
+      <c r="Y13" s="126"/>
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="126"/>
+      <c r="AB13" s="126"/>
+      <c r="AC13" s="126"/>
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="126"/>
+      <c r="AF13" s="126"/>
+      <c r="AG13" s="127"/>
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="126"/>
+      <c r="AJ13" s="126"/>
+      <c r="AK13" s="126"/>
+      <c r="AL13" s="126"/>
+      <c r="AM13" s="126"/>
+      <c r="AN13" s="126"/>
+      <c r="AO13" s="126"/>
+      <c r="AP13" s="126"/>
+      <c r="AQ13" s="127"/>
       <c r="AR13" s="41"/>
       <c r="AS13" s="16"/>
     </row>
@@ -35159,148 +35161,148 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
-      <c r="W16" s="125"/>
-      <c r="X16" s="125"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="125"/>
-      <c r="AB16" s="125"/>
-      <c r="AC16" s="125"/>
-      <c r="AD16" s="125"/>
-      <c r="AE16" s="125"/>
-      <c r="AF16" s="125"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="125"/>
-      <c r="AJ16" s="125"/>
-      <c r="AK16" s="125"/>
-      <c r="AL16" s="125"/>
-      <c r="AM16" s="125"/>
-      <c r="AN16" s="125"/>
-      <c r="AO16" s="125"/>
-      <c r="AP16" s="125"/>
-      <c r="AQ16" s="126"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="170"/>
+      <c r="S16" s="170"/>
+      <c r="T16" s="170"/>
+      <c r="U16" s="170"/>
+      <c r="V16" s="170"/>
+      <c r="W16" s="170"/>
+      <c r="X16" s="170"/>
+      <c r="Y16" s="170"/>
+      <c r="Z16" s="170"/>
+      <c r="AA16" s="170"/>
+      <c r="AB16" s="170"/>
+      <c r="AC16" s="170"/>
+      <c r="AD16" s="170"/>
+      <c r="AE16" s="170"/>
+      <c r="AF16" s="170"/>
+      <c r="AG16" s="170"/>
+      <c r="AH16" s="170"/>
+      <c r="AI16" s="170"/>
+      <c r="AJ16" s="170"/>
+      <c r="AK16" s="170"/>
+      <c r="AL16" s="170"/>
+      <c r="AM16" s="170"/>
+      <c r="AN16" s="170"/>
+      <c r="AO16" s="170"/>
+      <c r="AP16" s="170"/>
+      <c r="AQ16" s="171"/>
       <c r="AR16" s="41"/>
       <c r="AS16" s="41"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="137"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="137"/>
-      <c r="AH17" s="137"/>
-      <c r="AI17" s="137"/>
-      <c r="AJ17" s="137"/>
-      <c r="AK17" s="137"/>
-      <c r="AL17" s="137"/>
-      <c r="AM17" s="137"/>
-      <c r="AN17" s="137"/>
-      <c r="AO17" s="137"/>
-      <c r="AP17" s="137"/>
-      <c r="AQ17" s="138"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="144"/>
+      <c r="T17" s="144"/>
+      <c r="U17" s="144"/>
+      <c r="V17" s="144"/>
+      <c r="W17" s="144"/>
+      <c r="X17" s="144"/>
+      <c r="Y17" s="144"/>
+      <c r="Z17" s="144"/>
+      <c r="AA17" s="144"/>
+      <c r="AB17" s="144"/>
+      <c r="AC17" s="144"/>
+      <c r="AD17" s="144"/>
+      <c r="AE17" s="144"/>
+      <c r="AF17" s="144"/>
+      <c r="AG17" s="144"/>
+      <c r="AH17" s="144"/>
+      <c r="AI17" s="144"/>
+      <c r="AJ17" s="144"/>
+      <c r="AK17" s="144"/>
+      <c r="AL17" s="144"/>
+      <c r="AM17" s="144"/>
+      <c r="AN17" s="144"/>
+      <c r="AO17" s="144"/>
+      <c r="AP17" s="144"/>
+      <c r="AQ17" s="145"/>
       <c r="AR17" s="45"/>
       <c r="AS17" s="45"/>
     </row>
     <row r="18" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
-      <c r="B18" s="167" t="s">
+      <c r="B18" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="171"/>
-      <c r="Q18" s="171"/>
-      <c r="R18" s="171"/>
-      <c r="S18" s="171"/>
-      <c r="T18" s="171"/>
-      <c r="U18" s="171"/>
-      <c r="V18" s="171"/>
-      <c r="W18" s="171"/>
-      <c r="X18" s="171"/>
-      <c r="Y18" s="171"/>
-      <c r="Z18" s="171"/>
-      <c r="AA18" s="171"/>
-      <c r="AB18" s="171"/>
-      <c r="AC18" s="171"/>
-      <c r="AD18" s="171"/>
-      <c r="AE18" s="171"/>
-      <c r="AF18" s="171"/>
-      <c r="AG18" s="171"/>
-      <c r="AH18" s="171"/>
-      <c r="AI18" s="171"/>
-      <c r="AJ18" s="171"/>
-      <c r="AK18" s="171"/>
-      <c r="AL18" s="171"/>
-      <c r="AM18" s="171"/>
-      <c r="AN18" s="171"/>
-      <c r="AO18" s="171"/>
-      <c r="AP18" s="171"/>
-      <c r="AQ18" s="172"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="106"/>
+      <c r="AI18" s="106"/>
+      <c r="AJ18" s="106"/>
+      <c r="AK18" s="106"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="106"/>
+      <c r="AN18" s="106"/>
+      <c r="AO18" s="106"/>
+      <c r="AP18" s="106"/>
+      <c r="AQ18" s="107"/>
       <c r="AR18" s="45"/>
       <c r="AS18" s="45"/>
     </row>
@@ -35438,284 +35440,284 @@
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="133" t="s">
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="134"/>
-      <c r="Q23" s="134"/>
-      <c r="R23" s="134"/>
-      <c r="S23" s="134"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="134"/>
-      <c r="V23" s="134"/>
-      <c r="W23" s="134"/>
-      <c r="X23" s="134"/>
-      <c r="Y23" s="134"/>
-      <c r="Z23" s="134"/>
-      <c r="AA23" s="134"/>
-      <c r="AB23" s="134"/>
-      <c r="AC23" s="134"/>
-      <c r="AD23" s="134"/>
-      <c r="AE23" s="134"/>
-      <c r="AF23" s="134"/>
-      <c r="AG23" s="134"/>
-      <c r="AH23" s="134"/>
-      <c r="AI23" s="134"/>
-      <c r="AJ23" s="134"/>
-      <c r="AK23" s="134"/>
-      <c r="AL23" s="134"/>
-      <c r="AM23" s="134"/>
-      <c r="AN23" s="134"/>
-      <c r="AO23" s="134"/>
-      <c r="AP23" s="134"/>
-      <c r="AQ23" s="135"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
+      <c r="W23" s="141"/>
+      <c r="X23" s="141"/>
+      <c r="Y23" s="141"/>
+      <c r="Z23" s="141"/>
+      <c r="AA23" s="141"/>
+      <c r="AB23" s="141"/>
+      <c r="AC23" s="141"/>
+      <c r="AD23" s="141"/>
+      <c r="AE23" s="141"/>
+      <c r="AF23" s="141"/>
+      <c r="AG23" s="141"/>
+      <c r="AH23" s="141"/>
+      <c r="AI23" s="141"/>
+      <c r="AJ23" s="141"/>
+      <c r="AK23" s="141"/>
+      <c r="AL23" s="141"/>
+      <c r="AM23" s="141"/>
+      <c r="AN23" s="141"/>
+      <c r="AO23" s="141"/>
+      <c r="AP23" s="141"/>
+      <c r="AQ23" s="142"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B24" s="127" t="s">
+      <c r="B24" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="139" t="s">
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="140"/>
-      <c r="N24" s="140"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="140"/>
-      <c r="Q24" s="140"/>
-      <c r="R24" s="140"/>
-      <c r="S24" s="140"/>
-      <c r="T24" s="140"/>
-      <c r="U24" s="140"/>
-      <c r="V24" s="140"/>
-      <c r="W24" s="140"/>
-      <c r="X24" s="140"/>
-      <c r="Y24" s="140"/>
-      <c r="Z24" s="140"/>
-      <c r="AA24" s="140"/>
-      <c r="AB24" s="140"/>
-      <c r="AC24" s="140"/>
-      <c r="AD24" s="140"/>
-      <c r="AE24" s="140"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="140"/>
-      <c r="AH24" s="140"/>
-      <c r="AI24" s="140"/>
-      <c r="AJ24" s="140"/>
-      <c r="AK24" s="140"/>
-      <c r="AL24" s="140"/>
-      <c r="AM24" s="140"/>
-      <c r="AN24" s="140"/>
-      <c r="AO24" s="140"/>
-      <c r="AP24" s="140"/>
-      <c r="AQ24" s="141"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="112"/>
+      <c r="Y24" s="112"/>
+      <c r="Z24" s="112"/>
+      <c r="AA24" s="112"/>
+      <c r="AB24" s="112"/>
+      <c r="AC24" s="112"/>
+      <c r="AD24" s="112"/>
+      <c r="AE24" s="112"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="112"/>
+      <c r="AH24" s="112"/>
+      <c r="AI24" s="112"/>
+      <c r="AJ24" s="112"/>
+      <c r="AK24" s="112"/>
+      <c r="AL24" s="112"/>
+      <c r="AM24" s="112"/>
+      <c r="AN24" s="112"/>
+      <c r="AO24" s="112"/>
+      <c r="AP24" s="112"/>
+      <c r="AQ24" s="113"/>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140"/>
-      <c r="N25" s="140"/>
-      <c r="O25" s="140"/>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="140"/>
-      <c r="R25" s="140"/>
-      <c r="S25" s="140"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="140"/>
-      <c r="V25" s="140"/>
-      <c r="W25" s="140"/>
-      <c r="X25" s="140"/>
-      <c r="Y25" s="140"/>
-      <c r="Z25" s="140"/>
-      <c r="AA25" s="140"/>
-      <c r="AB25" s="140"/>
-      <c r="AC25" s="140"/>
-      <c r="AD25" s="140"/>
-      <c r="AE25" s="140"/>
-      <c r="AF25" s="140"/>
-      <c r="AG25" s="140"/>
-      <c r="AH25" s="140"/>
-      <c r="AI25" s="140"/>
-      <c r="AJ25" s="140"/>
-      <c r="AK25" s="140"/>
-      <c r="AL25" s="140"/>
-      <c r="AM25" s="140"/>
-      <c r="AN25" s="140"/>
-      <c r="AO25" s="140"/>
-      <c r="AP25" s="140"/>
-      <c r="AQ25" s="141"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="112"/>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="112"/>
+      <c r="AB25" s="112"/>
+      <c r="AC25" s="112"/>
+      <c r="AD25" s="112"/>
+      <c r="AE25" s="112"/>
+      <c r="AF25" s="112"/>
+      <c r="AG25" s="112"/>
+      <c r="AH25" s="112"/>
+      <c r="AI25" s="112"/>
+      <c r="AJ25" s="112"/>
+      <c r="AK25" s="112"/>
+      <c r="AL25" s="112"/>
+      <c r="AM25" s="112"/>
+      <c r="AN25" s="112"/>
+      <c r="AO25" s="112"/>
+      <c r="AP25" s="112"/>
+      <c r="AQ25" s="113"/>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="140"/>
-      <c r="S26" s="140"/>
-      <c r="T26" s="140"/>
-      <c r="U26" s="140"/>
-      <c r="V26" s="140"/>
-      <c r="W26" s="140"/>
-      <c r="X26" s="140"/>
-      <c r="Y26" s="140"/>
-      <c r="Z26" s="140"/>
-      <c r="AA26" s="140"/>
-      <c r="AB26" s="140"/>
-      <c r="AC26" s="140"/>
-      <c r="AD26" s="140"/>
-      <c r="AE26" s="140"/>
-      <c r="AF26" s="140"/>
-      <c r="AG26" s="140"/>
-      <c r="AH26" s="140"/>
-      <c r="AI26" s="140"/>
-      <c r="AJ26" s="140"/>
-      <c r="AK26" s="140"/>
-      <c r="AL26" s="140"/>
-      <c r="AM26" s="140"/>
-      <c r="AN26" s="140"/>
-      <c r="AO26" s="140"/>
-      <c r="AP26" s="140"/>
-      <c r="AQ26" s="141"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="112"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="112"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="112"/>
+      <c r="AH26" s="112"/>
+      <c r="AI26" s="112"/>
+      <c r="AJ26" s="112"/>
+      <c r="AK26" s="112"/>
+      <c r="AL26" s="112"/>
+      <c r="AM26" s="112"/>
+      <c r="AN26" s="112"/>
+      <c r="AO26" s="112"/>
+      <c r="AP26" s="112"/>
+      <c r="AQ26" s="113"/>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B27" s="156" t="s">
+      <c r="B27" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="140"/>
-      <c r="N27" s="140"/>
-      <c r="O27" s="140"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="140"/>
-      <c r="R27" s="140"/>
-      <c r="S27" s="140"/>
-      <c r="T27" s="140"/>
-      <c r="U27" s="140"/>
-      <c r="V27" s="140"/>
-      <c r="W27" s="140"/>
-      <c r="X27" s="140"/>
-      <c r="Y27" s="140"/>
-      <c r="Z27" s="140"/>
-      <c r="AA27" s="140"/>
-      <c r="AB27" s="140"/>
-      <c r="AC27" s="140"/>
-      <c r="AD27" s="140"/>
-      <c r="AE27" s="140"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="140"/>
-      <c r="AH27" s="140"/>
-      <c r="AI27" s="140"/>
-      <c r="AJ27" s="140"/>
-      <c r="AK27" s="140"/>
-      <c r="AL27" s="140"/>
-      <c r="AM27" s="140"/>
-      <c r="AN27" s="140"/>
-      <c r="AO27" s="140"/>
-      <c r="AP27" s="140"/>
-      <c r="AQ27" s="141"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="112"/>
+      <c r="AB27" s="112"/>
+      <c r="AC27" s="112"/>
+      <c r="AD27" s="112"/>
+      <c r="AE27" s="112"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="112"/>
+      <c r="AH27" s="112"/>
+      <c r="AI27" s="112"/>
+      <c r="AJ27" s="112"/>
+      <c r="AK27" s="112"/>
+      <c r="AL27" s="112"/>
+      <c r="AM27" s="112"/>
+      <c r="AN27" s="112"/>
+      <c r="AO27" s="112"/>
+      <c r="AP27" s="112"/>
+      <c r="AQ27" s="113"/>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="146"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="146"/>
-      <c r="U28" s="146"/>
-      <c r="V28" s="146"/>
-      <c r="W28" s="146"/>
-      <c r="X28" s="146"/>
-      <c r="Y28" s="146"/>
-      <c r="Z28" s="146"/>
-      <c r="AA28" s="146"/>
-      <c r="AB28" s="146"/>
-      <c r="AC28" s="146"/>
-      <c r="AD28" s="146"/>
-      <c r="AE28" s="146"/>
-      <c r="AF28" s="146"/>
-      <c r="AG28" s="146"/>
-      <c r="AH28" s="146"/>
-      <c r="AI28" s="146"/>
-      <c r="AJ28" s="146"/>
-      <c r="AK28" s="146"/>
-      <c r="AL28" s="146"/>
-      <c r="AM28" s="146"/>
-      <c r="AN28" s="146"/>
-      <c r="AO28" s="146"/>
-      <c r="AP28" s="146"/>
-      <c r="AQ28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="150"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="150"/>
+      <c r="U28" s="150"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="150"/>
+      <c r="X28" s="150"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="150"/>
+      <c r="AA28" s="150"/>
+      <c r="AB28" s="150"/>
+      <c r="AC28" s="150"/>
+      <c r="AD28" s="150"/>
+      <c r="AE28" s="150"/>
+      <c r="AF28" s="150"/>
+      <c r="AG28" s="150"/>
+      <c r="AH28" s="150"/>
+      <c r="AI28" s="150"/>
+      <c r="AJ28" s="150"/>
+      <c r="AK28" s="150"/>
+      <c r="AL28" s="150"/>
+      <c r="AM28" s="150"/>
+      <c r="AN28" s="150"/>
+      <c r="AO28" s="150"/>
+      <c r="AP28" s="150"/>
+      <c r="AQ28" s="151"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B29" s="8"/>
@@ -35801,11 +35803,11 @@
         <v>28</v>
       </c>
       <c r="AD30" s="11"/>
-      <c r="AF30" s="154" t="s">
+      <c r="AF30" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="AG30" s="154"/>
-      <c r="AH30" s="155"/>
+      <c r="AG30" s="161"/>
+      <c r="AH30" s="162"/>
       <c r="AI30" s="11"/>
       <c r="AK30" s="6" t="s">
         <v>21</v>
@@ -35950,26 +35952,26 @@
     </row>
     <row r="34" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="111" t="s">
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="112"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="151" t="s">
+      <c r="K34" s="156"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="N34" s="152"/>
-      <c r="O34" s="153"/>
+      <c r="N34" s="159"/>
+      <c r="O34" s="160"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
@@ -36001,28 +36003,28 @@
     </row>
     <row r="35" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
-      <c r="B35" s="159" t="s">
+      <c r="B35" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="160"/>
-      <c r="D35" s="160"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="98">
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="168"/>
+      <c r="J35" s="83">
         <f>COUNTIF($AX:$AX,"CONFORME")</f>
         <v>0</v>
       </c>
-      <c r="K35" s="99"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="101" t="e">
+      <c r="K35" s="84"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="86" t="e">
         <f>ROUND((J35/$J$40)*100,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N35" s="102"/>
-      <c r="O35" s="103"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="88"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
@@ -36054,28 +36056,28 @@
     </row>
     <row r="36" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="98">
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="83">
         <f>COUNTIF($AX:$AX,"NO CONFORME")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="99"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="101" t="e">
+      <c r="K36" s="84"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="86" t="e">
         <f t="shared" ref="M36:M40" si="0">ROUND((J36/$J$40)*100,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N36" s="102"/>
-      <c r="O36" s="103"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="88"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -36107,28 +36109,28 @@
     </row>
     <row r="37" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="98">
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="83">
         <f>COUNTIF($AX:$AX,"NO APLICA")</f>
         <v>0</v>
       </c>
-      <c r="K37" s="99"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="101" t="e">
+      <c r="K37" s="84"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="86" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N37" s="102"/>
-      <c r="O37" s="103"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="88"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -36160,28 +36162,28 @@
     </row>
     <row r="38" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="98">
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="83">
         <f>COUNTIF($AX:$AX,"PENDIENTE")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="99"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="101" t="e">
+      <c r="K38" s="84"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="86" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="102"/>
-      <c r="O38" s="103"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="88"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
@@ -36213,28 +36215,28 @@
     </row>
     <row r="39" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="98">
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="83">
         <f>COUNTIF($AX:$AX,"BLOQUEADO")</f>
         <v>0</v>
       </c>
-      <c r="K39" s="99"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="101" t="e">
+      <c r="K39" s="84"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="86" t="e">
         <f t="shared" ref="M39" si="1">ROUND((J39/$J$40)*100,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="102"/>
-      <c r="O39" s="103"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="88"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
@@ -36266,28 +36268,28 @@
     </row>
     <row r="40" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="111">
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
+      <c r="E40" s="179"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="155">
         <f>SUM(J35:L38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="112"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="101" t="e">
+      <c r="K40" s="156"/>
+      <c r="L40" s="157"/>
+      <c r="M40" s="86" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N40" s="102"/>
-      <c r="O40" s="103"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="88"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
@@ -36453,68 +36455,68 @@
       <c r="AX43" s="4"/>
     </row>
     <row r="44" spans="1:50" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="95" t="s">
+      <c r="C44" s="174"/>
+      <c r="D44" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="97"/>
-      <c r="F44" s="95" t="s">
+      <c r="E44" s="174"/>
+      <c r="F44" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="97"/>
-      <c r="H44" s="95" t="s">
+      <c r="G44" s="174"/>
+      <c r="H44" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95" t="s">
+      <c r="I44" s="173"/>
+      <c r="J44" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95" t="s">
+      <c r="K44" s="173"/>
+      <c r="L44" s="173"/>
+      <c r="M44" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95" t="s">
+      <c r="N44" s="173"/>
+      <c r="O44" s="173"/>
+      <c r="P44" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95" t="s">
+      <c r="Q44" s="173"/>
+      <c r="R44" s="173"/>
+      <c r="S44" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95" t="s">
+      <c r="T44" s="173"/>
+      <c r="U44" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="V44" s="95"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="95"/>
-      <c r="AA44" s="95" t="s">
+      <c r="V44" s="173"/>
+      <c r="W44" s="173"/>
+      <c r="X44" s="173"/>
+      <c r="Y44" s="173"/>
+      <c r="Z44" s="173"/>
+      <c r="AA44" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="95"/>
-      <c r="AD44" s="95"/>
-      <c r="AE44" s="95"/>
-      <c r="AF44" s="95"/>
-      <c r="AG44" s="95"/>
-      <c r="AH44" s="95"/>
-      <c r="AI44" s="95"/>
-      <c r="AJ44" s="95"/>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="95"/>
-      <c r="AO44" s="95"/>
-      <c r="AP44" s="95"/>
-      <c r="AQ44" s="95"/>
+      <c r="AB44" s="173"/>
+      <c r="AC44" s="173"/>
+      <c r="AD44" s="173"/>
+      <c r="AE44" s="173"/>
+      <c r="AF44" s="173"/>
+      <c r="AG44" s="173"/>
+      <c r="AH44" s="173"/>
+      <c r="AI44" s="173"/>
+      <c r="AJ44" s="173"/>
+      <c r="AK44" s="173"/>
+      <c r="AL44" s="173"/>
+      <c r="AM44" s="173"/>
+      <c r="AN44" s="173"/>
+      <c r="AO44" s="173"/>
+      <c r="AP44" s="173"/>
+      <c r="AQ44" s="173"/>
       <c r="AR44" s="39" t="s">
         <v>51</v>
       </c>
@@ -36538,48 +36540,48 @@
       </c>
     </row>
     <row r="45" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="87"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="89"/>
-      <c r="W45" s="89"/>
-      <c r="X45" s="89"/>
-      <c r="Y45" s="89"/>
-      <c r="Z45" s="90"/>
-      <c r="AA45" s="104"/>
-      <c r="AB45" s="92"/>
-      <c r="AC45" s="92"/>
-      <c r="AD45" s="92"/>
-      <c r="AE45" s="92"/>
-      <c r="AF45" s="92"/>
-      <c r="AG45" s="92"/>
-      <c r="AH45" s="92"/>
-      <c r="AI45" s="92"/>
-      <c r="AJ45" s="92"/>
-      <c r="AK45" s="92"/>
-      <c r="AL45" s="92"/>
-      <c r="AM45" s="92"/>
-      <c r="AN45" s="92"/>
-      <c r="AO45" s="92"/>
-      <c r="AP45" s="92"/>
-      <c r="AQ45" s="92"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="92"/>
+      <c r="U45" s="94"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="95"/>
+      <c r="X45" s="95"/>
+      <c r="Y45" s="95"/>
+      <c r="Z45" s="96"/>
+      <c r="AA45" s="172"/>
+      <c r="AB45" s="90"/>
+      <c r="AC45" s="90"/>
+      <c r="AD45" s="90"/>
+      <c r="AE45" s="90"/>
+      <c r="AF45" s="90"/>
+      <c r="AG45" s="90"/>
+      <c r="AH45" s="90"/>
+      <c r="AI45" s="90"/>
+      <c r="AJ45" s="90"/>
+      <c r="AK45" s="90"/>
+      <c r="AL45" s="90"/>
+      <c r="AM45" s="90"/>
+      <c r="AN45" s="90"/>
+      <c r="AO45" s="90"/>
+      <c r="AP45" s="90"/>
+      <c r="AQ45" s="90"/>
       <c r="AR45" s="43"/>
       <c r="AS45" s="43"/>
       <c r="AT45" s="54"/>
@@ -36589,48 +36591,48 @@
       <c r="AX45" s="47"/>
     </row>
     <row r="46" spans="1:50" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="87"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="82"/>
-      <c r="T46" s="82"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="89"/>
-      <c r="W46" s="89"/>
-      <c r="X46" s="89"/>
-      <c r="Y46" s="89"/>
-      <c r="Z46" s="90"/>
-      <c r="AA46" s="91"/>
-      <c r="AB46" s="92"/>
-      <c r="AC46" s="92"/>
-      <c r="AD46" s="92"/>
-      <c r="AE46" s="92"/>
-      <c r="AF46" s="92"/>
-      <c r="AG46" s="92"/>
-      <c r="AH46" s="92"/>
-      <c r="AI46" s="92"/>
-      <c r="AJ46" s="92"/>
-      <c r="AK46" s="92"/>
-      <c r="AL46" s="92"/>
-      <c r="AM46" s="92"/>
-      <c r="AN46" s="92"/>
-      <c r="AO46" s="92"/>
-      <c r="AP46" s="92"/>
-      <c r="AQ46" s="92"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="92"/>
+      <c r="U46" s="94"/>
+      <c r="V46" s="95"/>
+      <c r="W46" s="95"/>
+      <c r="X46" s="95"/>
+      <c r="Y46" s="95"/>
+      <c r="Z46" s="96"/>
+      <c r="AA46" s="89"/>
+      <c r="AB46" s="90"/>
+      <c r="AC46" s="90"/>
+      <c r="AD46" s="90"/>
+      <c r="AE46" s="90"/>
+      <c r="AF46" s="90"/>
+      <c r="AG46" s="90"/>
+      <c r="AH46" s="90"/>
+      <c r="AI46" s="90"/>
+      <c r="AJ46" s="90"/>
+      <c r="AK46" s="90"/>
+      <c r="AL46" s="90"/>
+      <c r="AM46" s="90"/>
+      <c r="AN46" s="90"/>
+      <c r="AO46" s="90"/>
+      <c r="AP46" s="90"/>
+      <c r="AQ46" s="90"/>
       <c r="AR46" s="43"/>
       <c r="AS46" s="43"/>
       <c r="AT46" s="48"/>
@@ -36640,48 +36642,48 @@
       <c r="AX46" s="47"/>
     </row>
     <row r="47" spans="1:50" ht="168.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="87"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="82"/>
-      <c r="T47" s="82"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="89"/>
-      <c r="W47" s="89"/>
-      <c r="X47" s="89"/>
-      <c r="Y47" s="89"/>
-      <c r="Z47" s="90"/>
-      <c r="AA47" s="91"/>
-      <c r="AB47" s="92"/>
-      <c r="AC47" s="92"/>
-      <c r="AD47" s="92"/>
-      <c r="AE47" s="92"/>
-      <c r="AF47" s="92"/>
-      <c r="AG47" s="92"/>
-      <c r="AH47" s="92"/>
-      <c r="AI47" s="92"/>
-      <c r="AJ47" s="92"/>
-      <c r="AK47" s="92"/>
-      <c r="AL47" s="92"/>
-      <c r="AM47" s="92"/>
-      <c r="AN47" s="92"/>
-      <c r="AO47" s="92"/>
-      <c r="AP47" s="92"/>
-      <c r="AQ47" s="92"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="92"/>
+      <c r="T47" s="92"/>
+      <c r="U47" s="94"/>
+      <c r="V47" s="95"/>
+      <c r="W47" s="95"/>
+      <c r="X47" s="95"/>
+      <c r="Y47" s="95"/>
+      <c r="Z47" s="96"/>
+      <c r="AA47" s="89"/>
+      <c r="AB47" s="90"/>
+      <c r="AC47" s="90"/>
+      <c r="AD47" s="90"/>
+      <c r="AE47" s="90"/>
+      <c r="AF47" s="90"/>
+      <c r="AG47" s="90"/>
+      <c r="AH47" s="90"/>
+      <c r="AI47" s="90"/>
+      <c r="AJ47" s="90"/>
+      <c r="AK47" s="90"/>
+      <c r="AL47" s="90"/>
+      <c r="AM47" s="90"/>
+      <c r="AN47" s="90"/>
+      <c r="AO47" s="90"/>
+      <c r="AP47" s="90"/>
+      <c r="AQ47" s="90"/>
       <c r="AR47" s="43"/>
       <c r="AS47" s="43"/>
       <c r="AT47" s="48"/>
@@ -36691,48 +36693,48 @@
       <c r="AX47" s="47"/>
     </row>
     <row r="48" spans="1:50" ht="183.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="87"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="82"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="89"/>
-      <c r="W48" s="89"/>
-      <c r="X48" s="89"/>
-      <c r="Y48" s="89"/>
-      <c r="Z48" s="90"/>
-      <c r="AA48" s="91"/>
-      <c r="AB48" s="92"/>
-      <c r="AC48" s="92"/>
-      <c r="AD48" s="92"/>
-      <c r="AE48" s="92"/>
-      <c r="AF48" s="92"/>
-      <c r="AG48" s="92"/>
-      <c r="AH48" s="92"/>
-      <c r="AI48" s="92"/>
-      <c r="AJ48" s="92"/>
-      <c r="AK48" s="92"/>
-      <c r="AL48" s="92"/>
-      <c r="AM48" s="92"/>
-      <c r="AN48" s="92"/>
-      <c r="AO48" s="92"/>
-      <c r="AP48" s="92"/>
-      <c r="AQ48" s="92"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="92"/>
+      <c r="T48" s="92"/>
+      <c r="U48" s="94"/>
+      <c r="V48" s="95"/>
+      <c r="W48" s="95"/>
+      <c r="X48" s="95"/>
+      <c r="Y48" s="95"/>
+      <c r="Z48" s="96"/>
+      <c r="AA48" s="89"/>
+      <c r="AB48" s="90"/>
+      <c r="AC48" s="90"/>
+      <c r="AD48" s="90"/>
+      <c r="AE48" s="90"/>
+      <c r="AF48" s="90"/>
+      <c r="AG48" s="90"/>
+      <c r="AH48" s="90"/>
+      <c r="AI48" s="90"/>
+      <c r="AJ48" s="90"/>
+      <c r="AK48" s="90"/>
+      <c r="AL48" s="90"/>
+      <c r="AM48" s="90"/>
+      <c r="AN48" s="90"/>
+      <c r="AO48" s="90"/>
+      <c r="AP48" s="90"/>
+      <c r="AQ48" s="90"/>
       <c r="AR48" s="43"/>
       <c r="AS48" s="43"/>
       <c r="AT48" s="48"/>
@@ -36742,48 +36744,48 @@
       <c r="AX48" s="47"/>
     </row>
     <row r="49" spans="2:50" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="87"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="89"/>
-      <c r="W49" s="89"/>
-      <c r="X49" s="89"/>
-      <c r="Y49" s="89"/>
-      <c r="Z49" s="90"/>
-      <c r="AA49" s="91"/>
-      <c r="AB49" s="92"/>
-      <c r="AC49" s="92"/>
-      <c r="AD49" s="92"/>
-      <c r="AE49" s="92"/>
-      <c r="AF49" s="92"/>
-      <c r="AG49" s="92"/>
-      <c r="AH49" s="92"/>
-      <c r="AI49" s="92"/>
-      <c r="AJ49" s="92"/>
-      <c r="AK49" s="92"/>
-      <c r="AL49" s="92"/>
-      <c r="AM49" s="92"/>
-      <c r="AN49" s="92"/>
-      <c r="AO49" s="92"/>
-      <c r="AP49" s="92"/>
-      <c r="AQ49" s="92"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="92"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="92"/>
+      <c r="N49" s="92"/>
+      <c r="O49" s="92"/>
+      <c r="P49" s="92"/>
+      <c r="Q49" s="92"/>
+      <c r="R49" s="92"/>
+      <c r="S49" s="92"/>
+      <c r="T49" s="92"/>
+      <c r="U49" s="94"/>
+      <c r="V49" s="95"/>
+      <c r="W49" s="95"/>
+      <c r="X49" s="95"/>
+      <c r="Y49" s="95"/>
+      <c r="Z49" s="96"/>
+      <c r="AA49" s="89"/>
+      <c r="AB49" s="90"/>
+      <c r="AC49" s="90"/>
+      <c r="AD49" s="90"/>
+      <c r="AE49" s="90"/>
+      <c r="AF49" s="90"/>
+      <c r="AG49" s="90"/>
+      <c r="AH49" s="90"/>
+      <c r="AI49" s="90"/>
+      <c r="AJ49" s="90"/>
+      <c r="AK49" s="90"/>
+      <c r="AL49" s="90"/>
+      <c r="AM49" s="90"/>
+      <c r="AN49" s="90"/>
+      <c r="AO49" s="90"/>
+      <c r="AP49" s="90"/>
+      <c r="AQ49" s="90"/>
       <c r="AR49" s="43"/>
       <c r="AS49" s="43"/>
       <c r="AT49" s="48"/>
@@ -36793,48 +36795,48 @@
       <c r="AX49" s="47"/>
     </row>
     <row r="50" spans="2:50" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="87"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="88"/>
-      <c r="V50" s="89"/>
-      <c r="W50" s="89"/>
-      <c r="X50" s="89"/>
-      <c r="Y50" s="89"/>
-      <c r="Z50" s="90"/>
-      <c r="AA50" s="91"/>
-      <c r="AB50" s="92"/>
-      <c r="AC50" s="92"/>
-      <c r="AD50" s="92"/>
-      <c r="AE50" s="92"/>
-      <c r="AF50" s="92"/>
-      <c r="AG50" s="92"/>
-      <c r="AH50" s="92"/>
-      <c r="AI50" s="92"/>
-      <c r="AJ50" s="92"/>
-      <c r="AK50" s="92"/>
-      <c r="AL50" s="92"/>
-      <c r="AM50" s="92"/>
-      <c r="AN50" s="92"/>
-      <c r="AO50" s="92"/>
-      <c r="AP50" s="92"/>
-      <c r="AQ50" s="92"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="92"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="92"/>
+      <c r="P50" s="92"/>
+      <c r="Q50" s="92"/>
+      <c r="R50" s="92"/>
+      <c r="S50" s="92"/>
+      <c r="T50" s="92"/>
+      <c r="U50" s="94"/>
+      <c r="V50" s="95"/>
+      <c r="W50" s="95"/>
+      <c r="X50" s="95"/>
+      <c r="Y50" s="95"/>
+      <c r="Z50" s="96"/>
+      <c r="AA50" s="89"/>
+      <c r="AB50" s="90"/>
+      <c r="AC50" s="90"/>
+      <c r="AD50" s="90"/>
+      <c r="AE50" s="90"/>
+      <c r="AF50" s="90"/>
+      <c r="AG50" s="90"/>
+      <c r="AH50" s="90"/>
+      <c r="AI50" s="90"/>
+      <c r="AJ50" s="90"/>
+      <c r="AK50" s="90"/>
+      <c r="AL50" s="90"/>
+      <c r="AM50" s="90"/>
+      <c r="AN50" s="90"/>
+      <c r="AO50" s="90"/>
+      <c r="AP50" s="90"/>
+      <c r="AQ50" s="90"/>
       <c r="AR50" s="43"/>
       <c r="AS50" s="43"/>
       <c r="AT50" s="48"/>
@@ -36844,48 +36846,48 @@
       <c r="AX50" s="47"/>
     </row>
     <row r="51" spans="2:50" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="87"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="88"/>
-      <c r="V51" s="89"/>
-      <c r="W51" s="89"/>
-      <c r="X51" s="89"/>
-      <c r="Y51" s="89"/>
-      <c r="Z51" s="90"/>
-      <c r="AA51" s="91"/>
-      <c r="AB51" s="92"/>
-      <c r="AC51" s="92"/>
-      <c r="AD51" s="92"/>
-      <c r="AE51" s="92"/>
-      <c r="AF51" s="92"/>
-      <c r="AG51" s="92"/>
-      <c r="AH51" s="92"/>
-      <c r="AI51" s="92"/>
-      <c r="AJ51" s="92"/>
-      <c r="AK51" s="92"/>
-      <c r="AL51" s="92"/>
-      <c r="AM51" s="92"/>
-      <c r="AN51" s="92"/>
-      <c r="AO51" s="92"/>
-      <c r="AP51" s="92"/>
-      <c r="AQ51" s="92"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="92"/>
+      <c r="M51" s="92"/>
+      <c r="N51" s="92"/>
+      <c r="O51" s="92"/>
+      <c r="P51" s="92"/>
+      <c r="Q51" s="92"/>
+      <c r="R51" s="92"/>
+      <c r="S51" s="92"/>
+      <c r="T51" s="92"/>
+      <c r="U51" s="94"/>
+      <c r="V51" s="95"/>
+      <c r="W51" s="95"/>
+      <c r="X51" s="95"/>
+      <c r="Y51" s="95"/>
+      <c r="Z51" s="96"/>
+      <c r="AA51" s="89"/>
+      <c r="AB51" s="90"/>
+      <c r="AC51" s="90"/>
+      <c r="AD51" s="90"/>
+      <c r="AE51" s="90"/>
+      <c r="AF51" s="90"/>
+      <c r="AG51" s="90"/>
+      <c r="AH51" s="90"/>
+      <c r="AI51" s="90"/>
+      <c r="AJ51" s="90"/>
+      <c r="AK51" s="90"/>
+      <c r="AL51" s="90"/>
+      <c r="AM51" s="90"/>
+      <c r="AN51" s="90"/>
+      <c r="AO51" s="90"/>
+      <c r="AP51" s="90"/>
+      <c r="AQ51" s="90"/>
       <c r="AR51" s="43"/>
       <c r="AS51" s="43"/>
       <c r="AT51" s="48"/>
@@ -36895,48 +36897,48 @@
       <c r="AX51" s="47"/>
     </row>
     <row r="52" spans="2:50" ht="124.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="87"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="82"/>
-      <c r="R52" s="82"/>
-      <c r="S52" s="82"/>
-      <c r="T52" s="82"/>
-      <c r="U52" s="88"/>
-      <c r="V52" s="89"/>
-      <c r="W52" s="89"/>
-      <c r="X52" s="89"/>
-      <c r="Y52" s="89"/>
-      <c r="Z52" s="90"/>
-      <c r="AA52" s="91"/>
-      <c r="AB52" s="92"/>
-      <c r="AC52" s="92"/>
-      <c r="AD52" s="92"/>
-      <c r="AE52" s="92"/>
-      <c r="AF52" s="92"/>
-      <c r="AG52" s="92"/>
-      <c r="AH52" s="92"/>
-      <c r="AI52" s="92"/>
-      <c r="AJ52" s="92"/>
-      <c r="AK52" s="92"/>
-      <c r="AL52" s="92"/>
-      <c r="AM52" s="92"/>
-      <c r="AN52" s="92"/>
-      <c r="AO52" s="92"/>
-      <c r="AP52" s="92"/>
-      <c r="AQ52" s="92"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="92"/>
+      <c r="N52" s="92"/>
+      <c r="O52" s="92"/>
+      <c r="P52" s="92"/>
+      <c r="Q52" s="92"/>
+      <c r="R52" s="92"/>
+      <c r="S52" s="92"/>
+      <c r="T52" s="92"/>
+      <c r="U52" s="94"/>
+      <c r="V52" s="95"/>
+      <c r="W52" s="95"/>
+      <c r="X52" s="95"/>
+      <c r="Y52" s="95"/>
+      <c r="Z52" s="96"/>
+      <c r="AA52" s="89"/>
+      <c r="AB52" s="90"/>
+      <c r="AC52" s="90"/>
+      <c r="AD52" s="90"/>
+      <c r="AE52" s="90"/>
+      <c r="AF52" s="90"/>
+      <c r="AG52" s="90"/>
+      <c r="AH52" s="90"/>
+      <c r="AI52" s="90"/>
+      <c r="AJ52" s="90"/>
+      <c r="AK52" s="90"/>
+      <c r="AL52" s="90"/>
+      <c r="AM52" s="90"/>
+      <c r="AN52" s="90"/>
+      <c r="AO52" s="90"/>
+      <c r="AP52" s="90"/>
+      <c r="AQ52" s="90"/>
       <c r="AR52" s="43"/>
       <c r="AS52" s="43"/>
       <c r="AT52" s="48"/>
@@ -37781,23 +37783,23 @@
       <c r="AQ75" s="5"/>
     </row>
     <row r="76" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B76" s="93"/>
-      <c r="C76" s="93"/>
-      <c r="D76" s="93"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="93"/>
-      <c r="I76" s="93"/>
-      <c r="J76" s="93"/>
-      <c r="K76" s="93"/>
-      <c r="L76" s="93"/>
-      <c r="M76" s="93"/>
-      <c r="N76" s="93"/>
-      <c r="O76" s="93"/>
-      <c r="P76" s="93"/>
-      <c r="Q76" s="93"/>
-      <c r="R76" s="93"/>
+      <c r="B76" s="175"/>
+      <c r="C76" s="175"/>
+      <c r="D76" s="175"/>
+      <c r="E76" s="175"/>
+      <c r="F76" s="175"/>
+      <c r="G76" s="175"/>
+      <c r="H76" s="175"/>
+      <c r="I76" s="175"/>
+      <c r="J76" s="175"/>
+      <c r="K76" s="175"/>
+      <c r="L76" s="175"/>
+      <c r="M76" s="175"/>
+      <c r="N76" s="175"/>
+      <c r="O76" s="175"/>
+      <c r="P76" s="175"/>
+      <c r="Q76" s="175"/>
+      <c r="R76" s="175"/>
       <c r="AB76" s="10" t="s">
         <v>25</v>
       </c>
@@ -37830,18 +37832,18 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
-      <c r="H78" s="94"/>
-      <c r="I78" s="94"/>
-      <c r="J78" s="94"/>
-      <c r="K78" s="94"/>
-      <c r="L78" s="94"/>
-      <c r="M78" s="94"/>
-      <c r="N78" s="94"/>
-      <c r="O78" s="94"/>
-      <c r="P78" s="94"/>
-      <c r="Q78" s="94"/>
-      <c r="R78" s="94"/>
-      <c r="S78" s="94"/>
+      <c r="H78" s="176"/>
+      <c r="I78" s="176"/>
+      <c r="J78" s="176"/>
+      <c r="K78" s="176"/>
+      <c r="L78" s="176"/>
+      <c r="M78" s="176"/>
+      <c r="N78" s="176"/>
+      <c r="O78" s="176"/>
+      <c r="P78" s="176"/>
+      <c r="Q78" s="176"/>
+      <c r="R78" s="176"/>
+      <c r="S78" s="176"/>
       <c r="AM78" t="s">
         <v>84</v>
       </c>
@@ -37885,10 +37887,144 @@
       <c r="AS79" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="B43:AX50" xr:uid="{EE48EE09-E661-402D-BA1B-A100D489DD1B}">
+  <autoFilter ref="B43:AX50">
     <filterColumn colId="48" showButton="0"/>
   </autoFilter>
   <mergeCells count="158">
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:Z52"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:Z51"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:Z49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="AA52:AQ52"/>
+    <mergeCell ref="B76:R76"/>
+    <mergeCell ref="H78:S78"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:Z44"/>
+    <mergeCell ref="AA44:AQ44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="AA49:AQ49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:Z50"/>
+    <mergeCell ref="AA50:AQ50"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="U48:Z48"/>
+    <mergeCell ref="U46:Z46"/>
+    <mergeCell ref="AA46:AQ46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="AA47:AQ47"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:Z45"/>
+    <mergeCell ref="AA45:AQ45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:AG11"/>
+    <mergeCell ref="AH11:AQ11"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:AQ16"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:AG12"/>
+    <mergeCell ref="AH12:AQ12"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:AG13"/>
+    <mergeCell ref="AH13:AQ13"/>
+    <mergeCell ref="H23:AQ23"/>
+    <mergeCell ref="J17:AQ17"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:AQ24"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:AQ28"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="AF30:AH30"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:AQ27"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="J3:AQ4"/>
+    <mergeCell ref="I7:AQ7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:AG8"/>
+    <mergeCell ref="AH8:AQ8"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:AQ18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="H26:AQ26"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:AG9"/>
+    <mergeCell ref="AH9:AQ9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:AG10"/>
+    <mergeCell ref="AH10:AQ10"/>
+    <mergeCell ref="H25:AQ25"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="J39:L39"/>
     <mergeCell ref="M39:O39"/>
     <mergeCell ref="AA51:AQ51"/>
@@ -37913,162 +38049,28 @@
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="AA48:AQ48"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="J3:AQ4"/>
-    <mergeCell ref="I7:AQ7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:AG8"/>
-    <mergeCell ref="AH8:AQ8"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:AQ18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="H26:AQ26"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:AG9"/>
-    <mergeCell ref="AH9:AQ9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:AG10"/>
-    <mergeCell ref="AH10:AQ10"/>
-    <mergeCell ref="H25:AQ25"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:AG13"/>
-    <mergeCell ref="AH13:AQ13"/>
-    <mergeCell ref="H23:AQ23"/>
-    <mergeCell ref="J17:AQ17"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:AQ24"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:AQ28"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="AF30:AH30"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:AQ27"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:AG11"/>
-    <mergeCell ref="AH11:AQ11"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:AQ16"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:AG12"/>
-    <mergeCell ref="AH12:AQ12"/>
-    <mergeCell ref="U46:Z46"/>
-    <mergeCell ref="AA46:AQ46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="AA47:AQ47"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:Z45"/>
-    <mergeCell ref="AA45:AQ45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="AA52:AQ52"/>
-    <mergeCell ref="B76:R76"/>
-    <mergeCell ref="H78:S78"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:Z44"/>
-    <mergeCell ref="AA44:AQ44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="AA49:AQ49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:Z50"/>
-    <mergeCell ref="AA50:AQ50"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="U48:Z48"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:Z52"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:Z51"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:Z49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="D48:E48"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M53:O53" xr:uid="{2DA89B35-FB80-423A-A21E-D6AD59872CED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M53:O53">
       <formula1>Tecnicas_Pruebas</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H53:I53" xr:uid="{85DE78B2-D7BC-48A4-977D-E015DC04A24E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H53:I53">
       <formula1>Componentes</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P53:R53" xr:uid="{76BC22F3-F621-4206-9529-2E1DE3B7DEF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P53:R53">
       <formula1>Caracteristica_Evaluar</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS45:AS52" xr:uid="{A5AC85B8-9FAD-47B7-922E-E9CC46F691A9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS45:AS52">
       <formula1>"Crítico,Mayor,Menor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX53" xr:uid="{4EA5C696-D01A-4B52-859A-8EBD7613D4AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX53">
       <formula1>Estado_CP</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F53:G53" xr:uid="{F0029DDF-3E41-4DB1-87F2-231FCBAFF5B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F53:G53">
       <formula1>Requerimientos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S53:T53" xr:uid="{474749D8-51ED-42F2-BBDB-50519F8F0CB3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S53:T53">
       <formula1>Metodos_Pruebas</formula1>
     </dataValidation>
   </dataValidations>
@@ -38082,37 +38084,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{85B2D4D3-4F73-4147-A2C9-944AB7CAAAE1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$70:$A$86</xm:f>
           </x14:formula1>
           <xm:sqref>D45:E52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6C85D490-1E1C-48C9-9C49-5B3E0AAC0A99}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$97:$A$98</xm:f>
           </x14:formula1>
           <xm:sqref>AR45:AR52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB697AAF-5F00-49A1-8F6D-0CB2913A5334}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$24:$A$29</xm:f>
           </x14:formula1>
           <xm:sqref>M45:O52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{175E4247-2007-40D6-9917-123D40E92C5E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$33:$A$37</xm:f>
           </x14:formula1>
           <xm:sqref>P45:R52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DE09161-DC11-4A8F-A922-B50BAC23379F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$42:$A$51</xm:f>
           </x14:formula1>
           <xm:sqref>S45:T52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCC09B40-E055-4B6D-B605-1BD456407C11}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$62:$A$67</xm:f>
           </x14:formula1>
@@ -38125,11 +38127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2084E2-F98F-4FEB-8194-E5E04144CF46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AZ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AT82" sqref="AT82"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38170,381 +38172,381 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J3" s="162" t="s">
+      <c r="J3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="162"/>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="162"/>
-      <c r="AJ3" s="162"/>
-      <c r="AK3" s="162"/>
-      <c r="AL3" s="162"/>
-      <c r="AM3" s="162"/>
-      <c r="AN3" s="162"/>
-      <c r="AO3" s="162"/>
-      <c r="AP3" s="162"/>
-      <c r="AQ3" s="162"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="97"/>
       <c r="AR3" s="38"/>
       <c r="AS3" s="38"/>
     </row>
     <row r="4" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="162"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="162"/>
-      <c r="U4" s="162"/>
-      <c r="V4" s="162"/>
-      <c r="W4" s="162"/>
-      <c r="X4" s="162"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="162"/>
-      <c r="AA4" s="162"/>
-      <c r="AB4" s="162"/>
-      <c r="AC4" s="162"/>
-      <c r="AD4" s="162"/>
-      <c r="AE4" s="162"/>
-      <c r="AF4" s="162"/>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="162"/>
-      <c r="AL4" s="162"/>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="162"/>
-      <c r="AO4" s="162"/>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
       <c r="AR4" s="38"/>
       <c r="AS4" s="38"/>
     </row>
     <row r="5" spans="1:45" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="163" t="s">
+      <c r="I7" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="163"/>
-      <c r="V7" s="163"/>
-      <c r="W7" s="163"/>
-      <c r="X7" s="163"/>
-      <c r="Y7" s="163"/>
-      <c r="Z7" s="163"/>
-      <c r="AA7" s="163"/>
-      <c r="AB7" s="163"/>
-      <c r="AC7" s="163"/>
-      <c r="AD7" s="163"/>
-      <c r="AE7" s="163"/>
-      <c r="AF7" s="163"/>
-      <c r="AG7" s="163"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="163"/>
-      <c r="AJ7" s="163"/>
-      <c r="AK7" s="163"/>
-      <c r="AL7" s="163"/>
-      <c r="AM7" s="163"/>
-      <c r="AN7" s="163"/>
-      <c r="AO7" s="163"/>
-      <c r="AP7" s="163"/>
-      <c r="AQ7" s="163"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="98"/>
+      <c r="AP7" s="98"/>
+      <c r="AQ7" s="98"/>
       <c r="AR7" s="40"/>
       <c r="AS7" s="40"/>
     </row>
     <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="164" t="s">
+      <c r="I8" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="165"/>
-      <c r="K8" s="164" t="s">
+      <c r="J8" s="100"/>
+      <c r="K8" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="165"/>
-      <c r="M8" s="164" t="s">
+      <c r="L8" s="100"/>
+      <c r="M8" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
-      <c r="T8" s="166"/>
-      <c r="U8" s="166"/>
-      <c r="V8" s="166"/>
-      <c r="W8" s="166"/>
-      <c r="X8" s="166"/>
-      <c r="Y8" s="166"/>
-      <c r="Z8" s="166"/>
-      <c r="AA8" s="166"/>
-      <c r="AB8" s="166"/>
-      <c r="AC8" s="166"/>
-      <c r="AD8" s="166"/>
-      <c r="AE8" s="166"/>
-      <c r="AF8" s="166"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="164" t="s">
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="100"/>
+      <c r="AH8" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="AI8" s="166"/>
-      <c r="AJ8" s="166"/>
-      <c r="AK8" s="166"/>
-      <c r="AL8" s="166"/>
-      <c r="AM8" s="166"/>
-      <c r="AN8" s="166"/>
-      <c r="AO8" s="166"/>
-      <c r="AP8" s="166"/>
-      <c r="AQ8" s="165"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="101"/>
+      <c r="AN8" s="101"/>
+      <c r="AO8" s="101"/>
+      <c r="AP8" s="101"/>
+      <c r="AQ8" s="100"/>
       <c r="AR8" s="40"/>
       <c r="AS8" s="40"/>
     </row>
     <row r="9" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="193">
+      <c r="I9" s="190">
         <v>45784</v>
       </c>
-      <c r="J9" s="194"/>
-      <c r="K9" s="195" t="s">
+      <c r="J9" s="191"/>
+      <c r="K9" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="190" t="s">
+      <c r="L9" s="193"/>
+      <c r="M9" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="191"/>
-      <c r="R9" s="191"/>
-      <c r="S9" s="191"/>
-      <c r="T9" s="191"/>
-      <c r="U9" s="191"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="191"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="191"/>
-      <c r="AC9" s="191"/>
-      <c r="AD9" s="191"/>
-      <c r="AE9" s="191"/>
-      <c r="AF9" s="191"/>
-      <c r="AG9" s="192"/>
-      <c r="AH9" s="190" t="s">
+      <c r="N9" s="195"/>
+      <c r="O9" s="195"/>
+      <c r="P9" s="195"/>
+      <c r="Q9" s="195"/>
+      <c r="R9" s="195"/>
+      <c r="S9" s="195"/>
+      <c r="T9" s="195"/>
+      <c r="U9" s="195"/>
+      <c r="V9" s="195"/>
+      <c r="W9" s="195"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="195"/>
+      <c r="Z9" s="195"/>
+      <c r="AA9" s="195"/>
+      <c r="AB9" s="195"/>
+      <c r="AC9" s="195"/>
+      <c r="AD9" s="195"/>
+      <c r="AE9" s="195"/>
+      <c r="AF9" s="195"/>
+      <c r="AG9" s="196"/>
+      <c r="AH9" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="AI9" s="191"/>
-      <c r="AJ9" s="191"/>
-      <c r="AK9" s="191"/>
-      <c r="AL9" s="191"/>
-      <c r="AM9" s="191"/>
-      <c r="AN9" s="191"/>
-      <c r="AO9" s="191"/>
-      <c r="AP9" s="191"/>
-      <c r="AQ9" s="192"/>
+      <c r="AI9" s="195"/>
+      <c r="AJ9" s="195"/>
+      <c r="AK9" s="195"/>
+      <c r="AL9" s="195"/>
+      <c r="AM9" s="195"/>
+      <c r="AN9" s="195"/>
+      <c r="AO9" s="195"/>
+      <c r="AP9" s="195"/>
+      <c r="AQ9" s="196"/>
       <c r="AR9" s="40"/>
       <c r="AS9" s="40"/>
     </row>
     <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="193">
+      <c r="I10" s="190">
         <v>45894</v>
       </c>
-      <c r="J10" s="194"/>
-      <c r="K10" s="195" t="s">
+      <c r="J10" s="191"/>
+      <c r="K10" s="192" t="s">
         <v>287</v>
       </c>
-      <c r="L10" s="196"/>
-      <c r="M10" s="190" t="s">
+      <c r="L10" s="193"/>
+      <c r="M10" s="194" t="s">
         <v>297</v>
       </c>
-      <c r="N10" s="191"/>
-      <c r="O10" s="191"/>
-      <c r="P10" s="191"/>
-      <c r="Q10" s="191"/>
-      <c r="R10" s="191"/>
-      <c r="S10" s="191"/>
-      <c r="T10" s="191"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="191"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="191"/>
-      <c r="Y10" s="191"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="191"/>
-      <c r="AD10" s="191"/>
-      <c r="AE10" s="191"/>
-      <c r="AF10" s="191"/>
-      <c r="AG10" s="192"/>
-      <c r="AH10" s="190" t="s">
+      <c r="N10" s="195"/>
+      <c r="O10" s="195"/>
+      <c r="P10" s="195"/>
+      <c r="Q10" s="195"/>
+      <c r="R10" s="195"/>
+      <c r="S10" s="195"/>
+      <c r="T10" s="195"/>
+      <c r="U10" s="195"/>
+      <c r="V10" s="195"/>
+      <c r="W10" s="195"/>
+      <c r="X10" s="195"/>
+      <c r="Y10" s="195"/>
+      <c r="Z10" s="195"/>
+      <c r="AA10" s="195"/>
+      <c r="AB10" s="195"/>
+      <c r="AC10" s="195"/>
+      <c r="AD10" s="195"/>
+      <c r="AE10" s="195"/>
+      <c r="AF10" s="195"/>
+      <c r="AG10" s="196"/>
+      <c r="AH10" s="194" t="s">
         <v>288</v>
       </c>
-      <c r="AI10" s="191"/>
-      <c r="AJ10" s="191"/>
-      <c r="AK10" s="191"/>
-      <c r="AL10" s="191"/>
-      <c r="AM10" s="191"/>
-      <c r="AN10" s="191"/>
-      <c r="AO10" s="191"/>
-      <c r="AP10" s="191"/>
-      <c r="AQ10" s="192"/>
+      <c r="AI10" s="195"/>
+      <c r="AJ10" s="195"/>
+      <c r="AK10" s="195"/>
+      <c r="AL10" s="195"/>
+      <c r="AM10" s="195"/>
+      <c r="AN10" s="195"/>
+      <c r="AO10" s="195"/>
+      <c r="AP10" s="195"/>
+      <c r="AQ10" s="196"/>
       <c r="AR10" s="40"/>
       <c r="AS10" s="40"/>
     </row>
     <row r="11" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="119"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="119"/>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="119"/>
-      <c r="AF11" s="119"/>
-      <c r="AG11" s="120"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="119"/>
-      <c r="AJ11" s="119"/>
-      <c r="AK11" s="119"/>
-      <c r="AL11" s="119"/>
-      <c r="AM11" s="119"/>
-      <c r="AN11" s="119"/>
-      <c r="AO11" s="119"/>
-      <c r="AP11" s="119"/>
-      <c r="AQ11" s="120"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="126"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="126"/>
+      <c r="Y11" s="126"/>
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="126"/>
+      <c r="AB11" s="126"/>
+      <c r="AC11" s="126"/>
+      <c r="AD11" s="126"/>
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="126"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="126"/>
+      <c r="AJ11" s="126"/>
+      <c r="AK11" s="126"/>
+      <c r="AL11" s="126"/>
+      <c r="AM11" s="126"/>
+      <c r="AN11" s="126"/>
+      <c r="AO11" s="126"/>
+      <c r="AP11" s="126"/>
+      <c r="AQ11" s="127"/>
       <c r="AR11" s="41"/>
       <c r="AS11" s="41"/>
     </row>
     <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="119"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="119"/>
-      <c r="Z12" s="119"/>
-      <c r="AA12" s="119"/>
-      <c r="AB12" s="119"/>
-      <c r="AC12" s="119"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="119"/>
-      <c r="AF12" s="119"/>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="119"/>
-      <c r="AJ12" s="119"/>
-      <c r="AK12" s="119"/>
-      <c r="AL12" s="119"/>
-      <c r="AM12" s="119"/>
-      <c r="AN12" s="119"/>
-      <c r="AO12" s="119"/>
-      <c r="AP12" s="119"/>
-      <c r="AQ12" s="120"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
+      <c r="S12" s="126"/>
+      <c r="T12" s="126"/>
+      <c r="U12" s="126"/>
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="126"/>
+      <c r="AB12" s="126"/>
+      <c r="AC12" s="126"/>
+      <c r="AD12" s="126"/>
+      <c r="AE12" s="126"/>
+      <c r="AF12" s="126"/>
+      <c r="AG12" s="127"/>
+      <c r="AH12" s="125"/>
+      <c r="AI12" s="126"/>
+      <c r="AJ12" s="126"/>
+      <c r="AK12" s="126"/>
+      <c r="AL12" s="126"/>
+      <c r="AM12" s="126"/>
+      <c r="AN12" s="126"/>
+      <c r="AO12" s="126"/>
+      <c r="AP12" s="126"/>
+      <c r="AQ12" s="127"/>
       <c r="AR12" s="41"/>
       <c r="AS12" s="16"/>
     </row>
     <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="119"/>
-      <c r="X13" s="119"/>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="119"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="119"/>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="119"/>
-      <c r="AF13" s="119"/>
-      <c r="AG13" s="120"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="119"/>
-      <c r="AJ13" s="119"/>
-      <c r="AK13" s="119"/>
-      <c r="AL13" s="119"/>
-      <c r="AM13" s="119"/>
-      <c r="AN13" s="119"/>
-      <c r="AO13" s="119"/>
-      <c r="AP13" s="119"/>
-      <c r="AQ13" s="120"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
+      <c r="Y13" s="126"/>
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="126"/>
+      <c r="AB13" s="126"/>
+      <c r="AC13" s="126"/>
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="126"/>
+      <c r="AF13" s="126"/>
+      <c r="AG13" s="127"/>
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="126"/>
+      <c r="AJ13" s="126"/>
+      <c r="AK13" s="126"/>
+      <c r="AL13" s="126"/>
+      <c r="AM13" s="126"/>
+      <c r="AN13" s="126"/>
+      <c r="AO13" s="126"/>
+      <c r="AP13" s="126"/>
+      <c r="AQ13" s="127"/>
       <c r="AR13" s="41"/>
       <c r="AS13" s="16"/>
     </row>
@@ -38592,152 +38594,152 @@
     </row>
     <row r="16" spans="1:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="124" t="s">
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="169" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
-      <c r="W16" s="125"/>
-      <c r="X16" s="125"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="125"/>
-      <c r="AB16" s="125"/>
-      <c r="AC16" s="125"/>
-      <c r="AD16" s="125"/>
-      <c r="AE16" s="125"/>
-      <c r="AF16" s="125"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="125"/>
-      <c r="AJ16" s="125"/>
-      <c r="AK16" s="125"/>
-      <c r="AL16" s="125"/>
-      <c r="AM16" s="125"/>
-      <c r="AN16" s="125"/>
-      <c r="AO16" s="125"/>
-      <c r="AP16" s="125"/>
-      <c r="AQ16" s="126"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="170"/>
+      <c r="S16" s="170"/>
+      <c r="T16" s="170"/>
+      <c r="U16" s="170"/>
+      <c r="V16" s="170"/>
+      <c r="W16" s="170"/>
+      <c r="X16" s="170"/>
+      <c r="Y16" s="170"/>
+      <c r="Z16" s="170"/>
+      <c r="AA16" s="170"/>
+      <c r="AB16" s="170"/>
+      <c r="AC16" s="170"/>
+      <c r="AD16" s="170"/>
+      <c r="AE16" s="170"/>
+      <c r="AF16" s="170"/>
+      <c r="AG16" s="170"/>
+      <c r="AH16" s="170"/>
+      <c r="AI16" s="170"/>
+      <c r="AJ16" s="170"/>
+      <c r="AK16" s="170"/>
+      <c r="AL16" s="170"/>
+      <c r="AM16" s="170"/>
+      <c r="AN16" s="170"/>
+      <c r="AO16" s="170"/>
+      <c r="AP16" s="170"/>
+      <c r="AQ16" s="171"/>
       <c r="AR16" s="41"/>
       <c r="AS16" s="41"/>
     </row>
     <row r="17" spans="1:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="136" t="s">
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="137"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="137"/>
-      <c r="AH17" s="137"/>
-      <c r="AI17" s="137"/>
-      <c r="AJ17" s="137"/>
-      <c r="AK17" s="137"/>
-      <c r="AL17" s="137"/>
-      <c r="AM17" s="137"/>
-      <c r="AN17" s="137"/>
-      <c r="AO17" s="137"/>
-      <c r="AP17" s="137"/>
-      <c r="AQ17" s="138"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="144"/>
+      <c r="T17" s="144"/>
+      <c r="U17" s="144"/>
+      <c r="V17" s="144"/>
+      <c r="W17" s="144"/>
+      <c r="X17" s="144"/>
+      <c r="Y17" s="144"/>
+      <c r="Z17" s="144"/>
+      <c r="AA17" s="144"/>
+      <c r="AB17" s="144"/>
+      <c r="AC17" s="144"/>
+      <c r="AD17" s="144"/>
+      <c r="AE17" s="144"/>
+      <c r="AF17" s="144"/>
+      <c r="AG17" s="144"/>
+      <c r="AH17" s="144"/>
+      <c r="AI17" s="144"/>
+      <c r="AJ17" s="144"/>
+      <c r="AK17" s="144"/>
+      <c r="AL17" s="144"/>
+      <c r="AM17" s="144"/>
+      <c r="AN17" s="144"/>
+      <c r="AO17" s="144"/>
+      <c r="AP17" s="144"/>
+      <c r="AQ17" s="145"/>
       <c r="AR17" s="45"/>
       <c r="AS17" s="45"/>
     </row>
     <row r="18" spans="1:45" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="167" t="s">
+      <c r="B18" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="171"/>
-      <c r="Q18" s="171"/>
-      <c r="R18" s="171"/>
-      <c r="S18" s="171"/>
-      <c r="T18" s="171"/>
-      <c r="U18" s="171"/>
-      <c r="V18" s="171"/>
-      <c r="W18" s="171"/>
-      <c r="X18" s="171"/>
-      <c r="Y18" s="171"/>
-      <c r="Z18" s="171"/>
-      <c r="AA18" s="171"/>
-      <c r="AB18" s="171"/>
-      <c r="AC18" s="171"/>
-      <c r="AD18" s="171"/>
-      <c r="AE18" s="171"/>
-      <c r="AF18" s="171"/>
-      <c r="AG18" s="171"/>
-      <c r="AH18" s="171"/>
-      <c r="AI18" s="171"/>
-      <c r="AJ18" s="171"/>
-      <c r="AK18" s="171"/>
-      <c r="AL18" s="171"/>
-      <c r="AM18" s="171"/>
-      <c r="AN18" s="171"/>
-      <c r="AO18" s="171"/>
-      <c r="AP18" s="171"/>
-      <c r="AQ18" s="172"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="106"/>
+      <c r="AI18" s="106"/>
+      <c r="AJ18" s="106"/>
+      <c r="AK18" s="106"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="106"/>
+      <c r="AN18" s="106"/>
+      <c r="AO18" s="106"/>
+      <c r="AP18" s="106"/>
+      <c r="AQ18" s="107"/>
       <c r="AR18" s="45"/>
       <c r="AS18" s="45"/>
     </row>
@@ -38875,284 +38877,284 @@
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="133" t="s">
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="134"/>
-      <c r="Q23" s="134"/>
-      <c r="R23" s="134"/>
-      <c r="S23" s="134"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="134"/>
-      <c r="V23" s="134"/>
-      <c r="W23" s="134"/>
-      <c r="X23" s="134"/>
-      <c r="Y23" s="134"/>
-      <c r="Z23" s="134"/>
-      <c r="AA23" s="134"/>
-      <c r="AB23" s="134"/>
-      <c r="AC23" s="134"/>
-      <c r="AD23" s="134"/>
-      <c r="AE23" s="134"/>
-      <c r="AF23" s="134"/>
-      <c r="AG23" s="134"/>
-      <c r="AH23" s="134"/>
-      <c r="AI23" s="134"/>
-      <c r="AJ23" s="134"/>
-      <c r="AK23" s="134"/>
-      <c r="AL23" s="134"/>
-      <c r="AM23" s="134"/>
-      <c r="AN23" s="134"/>
-      <c r="AO23" s="134"/>
-      <c r="AP23" s="134"/>
-      <c r="AQ23" s="135"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
+      <c r="W23" s="141"/>
+      <c r="X23" s="141"/>
+      <c r="Y23" s="141"/>
+      <c r="Z23" s="141"/>
+      <c r="AA23" s="141"/>
+      <c r="AB23" s="141"/>
+      <c r="AC23" s="141"/>
+      <c r="AD23" s="141"/>
+      <c r="AE23" s="141"/>
+      <c r="AF23" s="141"/>
+      <c r="AG23" s="141"/>
+      <c r="AH23" s="141"/>
+      <c r="AI23" s="141"/>
+      <c r="AJ23" s="141"/>
+      <c r="AK23" s="141"/>
+      <c r="AL23" s="141"/>
+      <c r="AM23" s="141"/>
+      <c r="AN23" s="141"/>
+      <c r="AO23" s="141"/>
+      <c r="AP23" s="141"/>
+      <c r="AQ23" s="142"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B24" s="127" t="s">
+      <c r="B24" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="139" t="s">
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="140"/>
-      <c r="N24" s="140"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="140"/>
-      <c r="Q24" s="140"/>
-      <c r="R24" s="140"/>
-      <c r="S24" s="140"/>
-      <c r="T24" s="140"/>
-      <c r="U24" s="140"/>
-      <c r="V24" s="140"/>
-      <c r="W24" s="140"/>
-      <c r="X24" s="140"/>
-      <c r="Y24" s="140"/>
-      <c r="Z24" s="140"/>
-      <c r="AA24" s="140"/>
-      <c r="AB24" s="140"/>
-      <c r="AC24" s="140"/>
-      <c r="AD24" s="140"/>
-      <c r="AE24" s="140"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="140"/>
-      <c r="AH24" s="140"/>
-      <c r="AI24" s="140"/>
-      <c r="AJ24" s="140"/>
-      <c r="AK24" s="140"/>
-      <c r="AL24" s="140"/>
-      <c r="AM24" s="140"/>
-      <c r="AN24" s="140"/>
-      <c r="AO24" s="140"/>
-      <c r="AP24" s="140"/>
-      <c r="AQ24" s="141"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="112"/>
+      <c r="Y24" s="112"/>
+      <c r="Z24" s="112"/>
+      <c r="AA24" s="112"/>
+      <c r="AB24" s="112"/>
+      <c r="AC24" s="112"/>
+      <c r="AD24" s="112"/>
+      <c r="AE24" s="112"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="112"/>
+      <c r="AH24" s="112"/>
+      <c r="AI24" s="112"/>
+      <c r="AJ24" s="112"/>
+      <c r="AK24" s="112"/>
+      <c r="AL24" s="112"/>
+      <c r="AM24" s="112"/>
+      <c r="AN24" s="112"/>
+      <c r="AO24" s="112"/>
+      <c r="AP24" s="112"/>
+      <c r="AQ24" s="113"/>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140"/>
-      <c r="N25" s="140"/>
-      <c r="O25" s="140"/>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="140"/>
-      <c r="R25" s="140"/>
-      <c r="S25" s="140"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="140"/>
-      <c r="V25" s="140"/>
-      <c r="W25" s="140"/>
-      <c r="X25" s="140"/>
-      <c r="Y25" s="140"/>
-      <c r="Z25" s="140"/>
-      <c r="AA25" s="140"/>
-      <c r="AB25" s="140"/>
-      <c r="AC25" s="140"/>
-      <c r="AD25" s="140"/>
-      <c r="AE25" s="140"/>
-      <c r="AF25" s="140"/>
-      <c r="AG25" s="140"/>
-      <c r="AH25" s="140"/>
-      <c r="AI25" s="140"/>
-      <c r="AJ25" s="140"/>
-      <c r="AK25" s="140"/>
-      <c r="AL25" s="140"/>
-      <c r="AM25" s="140"/>
-      <c r="AN25" s="140"/>
-      <c r="AO25" s="140"/>
-      <c r="AP25" s="140"/>
-      <c r="AQ25" s="141"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="112"/>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="112"/>
+      <c r="AB25" s="112"/>
+      <c r="AC25" s="112"/>
+      <c r="AD25" s="112"/>
+      <c r="AE25" s="112"/>
+      <c r="AF25" s="112"/>
+      <c r="AG25" s="112"/>
+      <c r="AH25" s="112"/>
+      <c r="AI25" s="112"/>
+      <c r="AJ25" s="112"/>
+      <c r="AK25" s="112"/>
+      <c r="AL25" s="112"/>
+      <c r="AM25" s="112"/>
+      <c r="AN25" s="112"/>
+      <c r="AO25" s="112"/>
+      <c r="AP25" s="112"/>
+      <c r="AQ25" s="113"/>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="140"/>
-      <c r="S26" s="140"/>
-      <c r="T26" s="140"/>
-      <c r="U26" s="140"/>
-      <c r="V26" s="140"/>
-      <c r="W26" s="140"/>
-      <c r="X26" s="140"/>
-      <c r="Y26" s="140"/>
-      <c r="Z26" s="140"/>
-      <c r="AA26" s="140"/>
-      <c r="AB26" s="140"/>
-      <c r="AC26" s="140"/>
-      <c r="AD26" s="140"/>
-      <c r="AE26" s="140"/>
-      <c r="AF26" s="140"/>
-      <c r="AG26" s="140"/>
-      <c r="AH26" s="140"/>
-      <c r="AI26" s="140"/>
-      <c r="AJ26" s="140"/>
-      <c r="AK26" s="140"/>
-      <c r="AL26" s="140"/>
-      <c r="AM26" s="140"/>
-      <c r="AN26" s="140"/>
-      <c r="AO26" s="140"/>
-      <c r="AP26" s="140"/>
-      <c r="AQ26" s="141"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="112"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="112"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="112"/>
+      <c r="AH26" s="112"/>
+      <c r="AI26" s="112"/>
+      <c r="AJ26" s="112"/>
+      <c r="AK26" s="112"/>
+      <c r="AL26" s="112"/>
+      <c r="AM26" s="112"/>
+      <c r="AN26" s="112"/>
+      <c r="AO26" s="112"/>
+      <c r="AP26" s="112"/>
+      <c r="AQ26" s="113"/>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B27" s="156" t="s">
+      <c r="B27" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="140"/>
-      <c r="N27" s="140"/>
-      <c r="O27" s="140"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="140"/>
-      <c r="R27" s="140"/>
-      <c r="S27" s="140"/>
-      <c r="T27" s="140"/>
-      <c r="U27" s="140"/>
-      <c r="V27" s="140"/>
-      <c r="W27" s="140"/>
-      <c r="X27" s="140"/>
-      <c r="Y27" s="140"/>
-      <c r="Z27" s="140"/>
-      <c r="AA27" s="140"/>
-      <c r="AB27" s="140"/>
-      <c r="AC27" s="140"/>
-      <c r="AD27" s="140"/>
-      <c r="AE27" s="140"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="140"/>
-      <c r="AH27" s="140"/>
-      <c r="AI27" s="140"/>
-      <c r="AJ27" s="140"/>
-      <c r="AK27" s="140"/>
-      <c r="AL27" s="140"/>
-      <c r="AM27" s="140"/>
-      <c r="AN27" s="140"/>
-      <c r="AO27" s="140"/>
-      <c r="AP27" s="140"/>
-      <c r="AQ27" s="141"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="112"/>
+      <c r="AB27" s="112"/>
+      <c r="AC27" s="112"/>
+      <c r="AD27" s="112"/>
+      <c r="AE27" s="112"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="112"/>
+      <c r="AH27" s="112"/>
+      <c r="AI27" s="112"/>
+      <c r="AJ27" s="112"/>
+      <c r="AK27" s="112"/>
+      <c r="AL27" s="112"/>
+      <c r="AM27" s="112"/>
+      <c r="AN27" s="112"/>
+      <c r="AO27" s="112"/>
+      <c r="AP27" s="112"/>
+      <c r="AQ27" s="113"/>
     </row>
     <row r="28" spans="1:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="146"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="146"/>
-      <c r="U28" s="146"/>
-      <c r="V28" s="146"/>
-      <c r="W28" s="146"/>
-      <c r="X28" s="146"/>
-      <c r="Y28" s="146"/>
-      <c r="Z28" s="146"/>
-      <c r="AA28" s="146"/>
-      <c r="AB28" s="146"/>
-      <c r="AC28" s="146"/>
-      <c r="AD28" s="146"/>
-      <c r="AE28" s="146"/>
-      <c r="AF28" s="146"/>
-      <c r="AG28" s="146"/>
-      <c r="AH28" s="146"/>
-      <c r="AI28" s="146"/>
-      <c r="AJ28" s="146"/>
-      <c r="AK28" s="146"/>
-      <c r="AL28" s="146"/>
-      <c r="AM28" s="146"/>
-      <c r="AN28" s="146"/>
-      <c r="AO28" s="146"/>
-      <c r="AP28" s="146"/>
-      <c r="AQ28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="150"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="150"/>
+      <c r="U28" s="150"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="150"/>
+      <c r="X28" s="150"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="150"/>
+      <c r="AA28" s="150"/>
+      <c r="AB28" s="150"/>
+      <c r="AC28" s="150"/>
+      <c r="AD28" s="150"/>
+      <c r="AE28" s="150"/>
+      <c r="AF28" s="150"/>
+      <c r="AG28" s="150"/>
+      <c r="AH28" s="150"/>
+      <c r="AI28" s="150"/>
+      <c r="AJ28" s="150"/>
+      <c r="AK28" s="150"/>
+      <c r="AL28" s="150"/>
+      <c r="AM28" s="150"/>
+      <c r="AN28" s="150"/>
+      <c r="AO28" s="150"/>
+      <c r="AP28" s="150"/>
+      <c r="AQ28" s="151"/>
     </row>
     <row r="29" spans="1:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
@@ -39240,11 +39242,11 @@
         <v>28</v>
       </c>
       <c r="AD30" s="11"/>
-      <c r="AF30" s="154" t="s">
+      <c r="AF30" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="AG30" s="154"/>
-      <c r="AH30" s="155"/>
+      <c r="AG30" s="161"/>
+      <c r="AH30" s="162"/>
       <c r="AI30" s="11"/>
       <c r="AK30" s="6" t="s">
         <v>21</v>
@@ -39389,26 +39391,26 @@
     </row>
     <row r="34" spans="1:52" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="111" t="s">
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="112"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="151" t="s">
+      <c r="K34" s="156"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="N34" s="152"/>
-      <c r="O34" s="153"/>
+      <c r="N34" s="159"/>
+      <c r="O34" s="160"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
@@ -39440,28 +39442,28 @@
     </row>
     <row r="35" spans="1:52" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="159" t="s">
+      <c r="B35" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="160"/>
-      <c r="D35" s="160"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="98">
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="168"/>
+      <c r="J35" s="83">
         <f>COUNTIF($AZ:$AZ,"CONFORME")</f>
         <v>23</v>
       </c>
-      <c r="K35" s="99"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="187">
+      <c r="K35" s="84"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="197">
         <f>ROUND((J35/$J$40)*100,0)</f>
         <v>100</v>
       </c>
-      <c r="N35" s="188"/>
-      <c r="O35" s="189"/>
+      <c r="N35" s="198"/>
+      <c r="O35" s="199"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
@@ -39493,28 +39495,28 @@
     </row>
     <row r="36" spans="1:52" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="98">
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="83">
         <f>COUNTIF($AZ:$AZ,"NO CONFORME")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="99"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="181">
+      <c r="K36" s="84"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="187">
         <f t="shared" ref="M36:M40" si="0">ROUND((J36/$J$40)*100,0)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="182"/>
-      <c r="O36" s="183"/>
+      <c r="N36" s="188"/>
+      <c r="O36" s="189"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -39546,28 +39548,28 @@
     </row>
     <row r="37" spans="1:52" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="98">
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="83">
         <f>COUNTIF($AZ:$AZ,"NO APLICA")</f>
         <v>0</v>
       </c>
-      <c r="K37" s="99"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="181">
+      <c r="K37" s="84"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="187">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N37" s="182"/>
-      <c r="O37" s="183"/>
+      <c r="N37" s="188"/>
+      <c r="O37" s="189"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -39599,28 +39601,28 @@
     </row>
     <row r="38" spans="1:52" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="98">
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="83">
         <f>COUNTIF($AZ:$AZ,"PENDIENTE")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="99"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="181">
+      <c r="K38" s="84"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="187">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N38" s="182"/>
-      <c r="O38" s="183"/>
+      <c r="N38" s="188"/>
+      <c r="O38" s="189"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
@@ -39652,28 +39654,28 @@
     </row>
     <row r="39" spans="1:52" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="98">
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="83">
         <f>COUNTIF($AZ:$AZ,"BLOQUEADO")</f>
         <v>0</v>
       </c>
-      <c r="K39" s="99"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="181">
+      <c r="K39" s="84"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="187">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N39" s="182"/>
-      <c r="O39" s="183"/>
+      <c r="N39" s="188"/>
+      <c r="O39" s="189"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
@@ -39685,7 +39687,9 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
+      <c r="AA39" s="5" t="s">
+        <v>335</v>
+      </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
@@ -39705,28 +39709,28 @@
     </row>
     <row r="40" spans="1:52" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="111">
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
+      <c r="E40" s="179"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="155">
         <f>SUM(J35:L39)</f>
         <v>23</v>
       </c>
-      <c r="K40" s="112"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="181">
+      <c r="K40" s="156"/>
+      <c r="L40" s="157"/>
+      <c r="M40" s="187">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="N40" s="182"/>
-      <c r="O40" s="183"/>
+      <c r="N40" s="188"/>
+      <c r="O40" s="189"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
@@ -39892,68 +39896,68 @@
       <c r="AZ43" s="4"/>
     </row>
     <row r="44" spans="1:52" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="95" t="s">
+      <c r="C44" s="174"/>
+      <c r="D44" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="97"/>
-      <c r="F44" s="95" t="s">
+      <c r="E44" s="174"/>
+      <c r="F44" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="97"/>
-      <c r="H44" s="95" t="s">
+      <c r="G44" s="174"/>
+      <c r="H44" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95" t="s">
+      <c r="I44" s="173"/>
+      <c r="J44" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="184" t="s">
+      <c r="K44" s="173"/>
+      <c r="L44" s="173"/>
+      <c r="M44" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="185"/>
-      <c r="O44" s="186"/>
-      <c r="P44" s="95" t="s">
+      <c r="N44" s="201"/>
+      <c r="O44" s="202"/>
+      <c r="P44" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95" t="s">
+      <c r="Q44" s="173"/>
+      <c r="R44" s="173"/>
+      <c r="S44" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95" t="s">
+      <c r="T44" s="173"/>
+      <c r="U44" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="V44" s="95"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="95"/>
-      <c r="AA44" s="95" t="s">
+      <c r="V44" s="173"/>
+      <c r="W44" s="173"/>
+      <c r="X44" s="173"/>
+      <c r="Y44" s="173"/>
+      <c r="Z44" s="173"/>
+      <c r="AA44" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="95"/>
-      <c r="AD44" s="95"/>
-      <c r="AE44" s="95"/>
-      <c r="AF44" s="95"/>
-      <c r="AG44" s="95"/>
-      <c r="AH44" s="95"/>
-      <c r="AI44" s="95"/>
-      <c r="AJ44" s="95"/>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="95"/>
-      <c r="AO44" s="95"/>
-      <c r="AP44" s="95"/>
-      <c r="AQ44" s="95"/>
+      <c r="AB44" s="173"/>
+      <c r="AC44" s="173"/>
+      <c r="AD44" s="173"/>
+      <c r="AE44" s="173"/>
+      <c r="AF44" s="173"/>
+      <c r="AG44" s="173"/>
+      <c r="AH44" s="173"/>
+      <c r="AI44" s="173"/>
+      <c r="AJ44" s="173"/>
+      <c r="AK44" s="173"/>
+      <c r="AL44" s="173"/>
+      <c r="AM44" s="173"/>
+      <c r="AN44" s="173"/>
+      <c r="AO44" s="173"/>
+      <c r="AP44" s="173"/>
+      <c r="AQ44" s="173"/>
       <c r="AR44" s="39" t="s">
         <v>51</v>
       </c>
@@ -39983,68 +39987,68 @@
       </c>
     </row>
     <row r="45" spans="1:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="87" t="s">
+      <c r="B45" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83" t="s">
+      <c r="C45" s="92"/>
+      <c r="D45" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="83" t="s">
+      <c r="E45" s="92"/>
+      <c r="F45" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="82"/>
-      <c r="H45" s="197" t="s">
+      <c r="G45" s="92"/>
+      <c r="H45" s="181" t="s">
         <v>255</v>
       </c>
-      <c r="I45" s="198"/>
-      <c r="J45" s="199" t="s">
+      <c r="I45" s="182"/>
+      <c r="J45" s="183" t="s">
         <v>259</v>
       </c>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82">
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92">
         <v>1</v>
       </c>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82">
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92">
         <v>1</v>
       </c>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82">
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="92">
         <v>3</v>
       </c>
-      <c r="T45" s="82"/>
-      <c r="U45" s="197" t="s">
+      <c r="T45" s="92"/>
+      <c r="U45" s="181" t="s">
         <v>240</v>
       </c>
-      <c r="V45" s="200"/>
-      <c r="W45" s="200"/>
-      <c r="X45" s="200"/>
-      <c r="Y45" s="200"/>
-      <c r="Z45" s="201"/>
-      <c r="AA45" s="91" t="s">
+      <c r="V45" s="184"/>
+      <c r="W45" s="184"/>
+      <c r="X45" s="184"/>
+      <c r="Y45" s="184"/>
+      <c r="Z45" s="185"/>
+      <c r="AA45" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="AB45" s="202"/>
-      <c r="AC45" s="202"/>
-      <c r="AD45" s="202"/>
-      <c r="AE45" s="202"/>
-      <c r="AF45" s="202"/>
-      <c r="AG45" s="202"/>
-      <c r="AH45" s="202"/>
-      <c r="AI45" s="202"/>
-      <c r="AJ45" s="202"/>
-      <c r="AK45" s="202"/>
-      <c r="AL45" s="202"/>
-      <c r="AM45" s="202"/>
-      <c r="AN45" s="202"/>
-      <c r="AO45" s="202"/>
-      <c r="AP45" s="202"/>
-      <c r="AQ45" s="202"/>
+      <c r="AB45" s="186"/>
+      <c r="AC45" s="186"/>
+      <c r="AD45" s="186"/>
+      <c r="AE45" s="186"/>
+      <c r="AF45" s="186"/>
+      <c r="AG45" s="186"/>
+      <c r="AH45" s="186"/>
+      <c r="AI45" s="186"/>
+      <c r="AJ45" s="186"/>
+      <c r="AK45" s="186"/>
+      <c r="AL45" s="186"/>
+      <c r="AM45" s="186"/>
+      <c r="AN45" s="186"/>
+      <c r="AO45" s="186"/>
+      <c r="AP45" s="186"/>
+      <c r="AQ45" s="186"/>
       <c r="AR45" s="81" t="s">
         <v>98</v>
       </c>
@@ -40066,7 +40070,7 @@
       <c r="AX45" s="80" t="s">
         <v>298</v>
       </c>
-      <c r="AY45" s="203" t="s">
+      <c r="AY45" s="82" t="s">
         <v>299</v>
       </c>
       <c r="AZ45" s="47" t="s">
@@ -40074,68 +40078,68 @@
       </c>
     </row>
     <row r="46" spans="1:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83" t="s">
+      <c r="C46" s="92"/>
+      <c r="D46" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="83" t="s">
+      <c r="E46" s="92"/>
+      <c r="F46" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="82"/>
-      <c r="H46" s="197" t="s">
+      <c r="G46" s="92"/>
+      <c r="H46" s="181" t="s">
         <v>255</v>
       </c>
-      <c r="I46" s="198"/>
-      <c r="J46" s="199" t="s">
+      <c r="I46" s="182"/>
+      <c r="J46" s="183" t="s">
         <v>259</v>
       </c>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82">
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92">
         <v>1</v>
       </c>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82">
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="92">
         <v>1</v>
       </c>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="82">
+      <c r="Q46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="92">
         <v>3</v>
       </c>
-      <c r="T46" s="82"/>
-      <c r="U46" s="197" t="s">
+      <c r="T46" s="92"/>
+      <c r="U46" s="181" t="s">
         <v>241</v>
       </c>
-      <c r="V46" s="200"/>
-      <c r="W46" s="200"/>
-      <c r="X46" s="200"/>
-      <c r="Y46" s="200"/>
-      <c r="Z46" s="201"/>
-      <c r="AA46" s="91" t="s">
+      <c r="V46" s="184"/>
+      <c r="W46" s="184"/>
+      <c r="X46" s="184"/>
+      <c r="Y46" s="184"/>
+      <c r="Z46" s="185"/>
+      <c r="AA46" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="AB46" s="202"/>
-      <c r="AC46" s="202"/>
-      <c r="AD46" s="202"/>
-      <c r="AE46" s="202"/>
-      <c r="AF46" s="202"/>
-      <c r="AG46" s="202"/>
-      <c r="AH46" s="202"/>
-      <c r="AI46" s="202"/>
-      <c r="AJ46" s="202"/>
-      <c r="AK46" s="202"/>
-      <c r="AL46" s="202"/>
-      <c r="AM46" s="202"/>
-      <c r="AN46" s="202"/>
-      <c r="AO46" s="202"/>
-      <c r="AP46" s="202"/>
-      <c r="AQ46" s="202"/>
+      <c r="AB46" s="186"/>
+      <c r="AC46" s="186"/>
+      <c r="AD46" s="186"/>
+      <c r="AE46" s="186"/>
+      <c r="AF46" s="186"/>
+      <c r="AG46" s="186"/>
+      <c r="AH46" s="186"/>
+      <c r="AI46" s="186"/>
+      <c r="AJ46" s="186"/>
+      <c r="AK46" s="186"/>
+      <c r="AL46" s="186"/>
+      <c r="AM46" s="186"/>
+      <c r="AN46" s="186"/>
+      <c r="AO46" s="186"/>
+      <c r="AP46" s="186"/>
+      <c r="AQ46" s="186"/>
       <c r="AR46" s="81" t="s">
         <v>98</v>
       </c>
@@ -40157,7 +40161,7 @@
       <c r="AX46" s="80" t="s">
         <v>298</v>
       </c>
-      <c r="AY46" s="203" t="s">
+      <c r="AY46" s="82" t="s">
         <v>299</v>
       </c>
       <c r="AZ46" s="47" t="s">
@@ -40165,68 +40169,68 @@
       </c>
     </row>
     <row r="47" spans="1:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="83" t="s">
+      <c r="C47" s="92"/>
+      <c r="D47" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="82"/>
-      <c r="F47" s="83" t="s">
+      <c r="E47" s="92"/>
+      <c r="F47" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G47" s="82"/>
-      <c r="H47" s="197" t="s">
+      <c r="G47" s="92"/>
+      <c r="H47" s="181" t="s">
         <v>255</v>
       </c>
-      <c r="I47" s="198"/>
-      <c r="J47" s="199" t="s">
+      <c r="I47" s="182"/>
+      <c r="J47" s="183" t="s">
         <v>260</v>
       </c>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82">
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92">
         <v>1</v>
       </c>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82">
+      <c r="N47" s="92"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92">
         <v>1</v>
       </c>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="82">
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="92">
         <v>3</v>
       </c>
-      <c r="T47" s="82"/>
-      <c r="U47" s="197" t="s">
+      <c r="T47" s="92"/>
+      <c r="U47" s="181" t="s">
         <v>242</v>
       </c>
-      <c r="V47" s="200"/>
-      <c r="W47" s="200"/>
-      <c r="X47" s="200"/>
-      <c r="Y47" s="200"/>
-      <c r="Z47" s="201"/>
-      <c r="AA47" s="91" t="s">
+      <c r="V47" s="184"/>
+      <c r="W47" s="184"/>
+      <c r="X47" s="184"/>
+      <c r="Y47" s="184"/>
+      <c r="Z47" s="185"/>
+      <c r="AA47" s="89" t="s">
         <v>271</v>
       </c>
-      <c r="AB47" s="202"/>
-      <c r="AC47" s="202"/>
-      <c r="AD47" s="202"/>
-      <c r="AE47" s="202"/>
-      <c r="AF47" s="202"/>
-      <c r="AG47" s="202"/>
-      <c r="AH47" s="202"/>
-      <c r="AI47" s="202"/>
-      <c r="AJ47" s="202"/>
-      <c r="AK47" s="202"/>
-      <c r="AL47" s="202"/>
-      <c r="AM47" s="202"/>
-      <c r="AN47" s="202"/>
-      <c r="AO47" s="202"/>
-      <c r="AP47" s="202"/>
-      <c r="AQ47" s="202"/>
+      <c r="AB47" s="186"/>
+      <c r="AC47" s="186"/>
+      <c r="AD47" s="186"/>
+      <c r="AE47" s="186"/>
+      <c r="AF47" s="186"/>
+      <c r="AG47" s="186"/>
+      <c r="AH47" s="186"/>
+      <c r="AI47" s="186"/>
+      <c r="AJ47" s="186"/>
+      <c r="AK47" s="186"/>
+      <c r="AL47" s="186"/>
+      <c r="AM47" s="186"/>
+      <c r="AN47" s="186"/>
+      <c r="AO47" s="186"/>
+      <c r="AP47" s="186"/>
+      <c r="AQ47" s="186"/>
       <c r="AR47" s="81" t="s">
         <v>98</v>
       </c>
@@ -40248,7 +40252,7 @@
       <c r="AX47" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="AY47" s="203" t="s">
+      <c r="AY47" s="82" t="s">
         <v>301</v>
       </c>
       <c r="AZ47" s="47" t="s">
@@ -40256,68 +40260,68 @@
       </c>
     </row>
     <row r="48" spans="1:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="87" t="s">
+      <c r="B48" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="82"/>
-      <c r="D48" s="83" t="s">
+      <c r="C48" s="92"/>
+      <c r="D48" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E48" s="82"/>
-      <c r="F48" s="83" t="s">
+      <c r="E48" s="92"/>
+      <c r="F48" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G48" s="82"/>
-      <c r="H48" s="197" t="s">
+      <c r="G48" s="92"/>
+      <c r="H48" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="I48" s="198"/>
-      <c r="J48" s="199" t="s">
+      <c r="I48" s="182"/>
+      <c r="J48" s="183" t="s">
         <v>261</v>
       </c>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82">
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="92">
         <v>1</v>
       </c>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82">
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="92">
         <v>1</v>
       </c>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82">
+      <c r="Q48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="92">
         <v>3</v>
       </c>
-      <c r="T48" s="82"/>
-      <c r="U48" s="197" t="s">
+      <c r="T48" s="92"/>
+      <c r="U48" s="181" t="s">
         <v>293</v>
       </c>
-      <c r="V48" s="200"/>
-      <c r="W48" s="200"/>
-      <c r="X48" s="200"/>
-      <c r="Y48" s="200"/>
-      <c r="Z48" s="201"/>
-      <c r="AA48" s="91" t="s">
+      <c r="V48" s="184"/>
+      <c r="W48" s="184"/>
+      <c r="X48" s="184"/>
+      <c r="Y48" s="184"/>
+      <c r="Z48" s="185"/>
+      <c r="AA48" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="AB48" s="202"/>
-      <c r="AC48" s="202"/>
-      <c r="AD48" s="202"/>
-      <c r="AE48" s="202"/>
-      <c r="AF48" s="202"/>
-      <c r="AG48" s="202"/>
-      <c r="AH48" s="202"/>
-      <c r="AI48" s="202"/>
-      <c r="AJ48" s="202"/>
-      <c r="AK48" s="202"/>
-      <c r="AL48" s="202"/>
-      <c r="AM48" s="202"/>
-      <c r="AN48" s="202"/>
-      <c r="AO48" s="202"/>
-      <c r="AP48" s="202"/>
-      <c r="AQ48" s="202"/>
+      <c r="AB48" s="186"/>
+      <c r="AC48" s="186"/>
+      <c r="AD48" s="186"/>
+      <c r="AE48" s="186"/>
+      <c r="AF48" s="186"/>
+      <c r="AG48" s="186"/>
+      <c r="AH48" s="186"/>
+      <c r="AI48" s="186"/>
+      <c r="AJ48" s="186"/>
+      <c r="AK48" s="186"/>
+      <c r="AL48" s="186"/>
+      <c r="AM48" s="186"/>
+      <c r="AN48" s="186"/>
+      <c r="AO48" s="186"/>
+      <c r="AP48" s="186"/>
+      <c r="AQ48" s="186"/>
       <c r="AR48" s="81" t="s">
         <v>98</v>
       </c>
@@ -40339,7 +40343,7 @@
       <c r="AX48" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="AY48" s="203" t="s">
+      <c r="AY48" s="82" t="s">
         <v>303</v>
       </c>
       <c r="AZ48" s="47" t="s">
@@ -40347,68 +40351,68 @@
       </c>
     </row>
     <row r="49" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="83" t="s">
+      <c r="C49" s="92"/>
+      <c r="D49" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="82"/>
-      <c r="F49" s="83" t="s">
+      <c r="E49" s="92"/>
+      <c r="F49" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G49" s="82"/>
-      <c r="H49" s="197" t="s">
+      <c r="G49" s="92"/>
+      <c r="H49" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="I49" s="198"/>
-      <c r="J49" s="199" t="s">
+      <c r="I49" s="182"/>
+      <c r="J49" s="183" t="s">
         <v>261</v>
       </c>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82">
+      <c r="K49" s="92"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="92">
         <v>1</v>
       </c>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82">
+      <c r="N49" s="92"/>
+      <c r="O49" s="92"/>
+      <c r="P49" s="92">
         <v>1</v>
       </c>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82">
+      <c r="Q49" s="92"/>
+      <c r="R49" s="92"/>
+      <c r="S49" s="92">
         <v>3</v>
       </c>
-      <c r="T49" s="82"/>
-      <c r="U49" s="197" t="s">
+      <c r="T49" s="92"/>
+      <c r="U49" s="181" t="s">
         <v>294</v>
       </c>
-      <c r="V49" s="200"/>
-      <c r="W49" s="200"/>
-      <c r="X49" s="200"/>
-      <c r="Y49" s="200"/>
-      <c r="Z49" s="201"/>
-      <c r="AA49" s="91" t="s">
+      <c r="V49" s="184"/>
+      <c r="W49" s="184"/>
+      <c r="X49" s="184"/>
+      <c r="Y49" s="184"/>
+      <c r="Z49" s="185"/>
+      <c r="AA49" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="AB49" s="202"/>
-      <c r="AC49" s="202"/>
-      <c r="AD49" s="202"/>
-      <c r="AE49" s="202"/>
-      <c r="AF49" s="202"/>
-      <c r="AG49" s="202"/>
-      <c r="AH49" s="202"/>
-      <c r="AI49" s="202"/>
-      <c r="AJ49" s="202"/>
-      <c r="AK49" s="202"/>
-      <c r="AL49" s="202"/>
-      <c r="AM49" s="202"/>
-      <c r="AN49" s="202"/>
-      <c r="AO49" s="202"/>
-      <c r="AP49" s="202"/>
-      <c r="AQ49" s="202"/>
+      <c r="AB49" s="186"/>
+      <c r="AC49" s="186"/>
+      <c r="AD49" s="186"/>
+      <c r="AE49" s="186"/>
+      <c r="AF49" s="186"/>
+      <c r="AG49" s="186"/>
+      <c r="AH49" s="186"/>
+      <c r="AI49" s="186"/>
+      <c r="AJ49" s="186"/>
+      <c r="AK49" s="186"/>
+      <c r="AL49" s="186"/>
+      <c r="AM49" s="186"/>
+      <c r="AN49" s="186"/>
+      <c r="AO49" s="186"/>
+      <c r="AP49" s="186"/>
+      <c r="AQ49" s="186"/>
       <c r="AR49" s="81" t="s">
         <v>98</v>
       </c>
@@ -40430,7 +40434,7 @@
       <c r="AX49" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="AY49" s="203" t="s">
+      <c r="AY49" s="82" t="s">
         <v>305</v>
       </c>
       <c r="AZ49" s="47" t="s">
@@ -40438,68 +40442,68 @@
       </c>
     </row>
     <row r="50" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="87" t="s">
+      <c r="B50" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="82"/>
-      <c r="D50" s="83" t="s">
+      <c r="C50" s="92"/>
+      <c r="D50" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="82"/>
-      <c r="F50" s="83" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="82"/>
-      <c r="H50" s="197" t="s">
+      <c r="G50" s="92"/>
+      <c r="H50" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="I50" s="198"/>
-      <c r="J50" s="199" t="s">
+      <c r="I50" s="182"/>
+      <c r="J50" s="183" t="s">
         <v>261</v>
       </c>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82">
+      <c r="K50" s="92"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="92">
         <v>1</v>
       </c>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82">
+      <c r="N50" s="92"/>
+      <c r="O50" s="92"/>
+      <c r="P50" s="92">
         <v>1</v>
       </c>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82">
+      <c r="Q50" s="92"/>
+      <c r="R50" s="92"/>
+      <c r="S50" s="92">
         <v>3</v>
       </c>
-      <c r="T50" s="82"/>
-      <c r="U50" s="197" t="s">
+      <c r="T50" s="92"/>
+      <c r="U50" s="181" t="s">
         <v>289</v>
       </c>
-      <c r="V50" s="200"/>
-      <c r="W50" s="200"/>
-      <c r="X50" s="200"/>
-      <c r="Y50" s="200"/>
-      <c r="Z50" s="201"/>
-      <c r="AA50" s="91" t="s">
+      <c r="V50" s="184"/>
+      <c r="W50" s="184"/>
+      <c r="X50" s="184"/>
+      <c r="Y50" s="184"/>
+      <c r="Z50" s="185"/>
+      <c r="AA50" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="AB50" s="202"/>
-      <c r="AC50" s="202"/>
-      <c r="AD50" s="202"/>
-      <c r="AE50" s="202"/>
-      <c r="AF50" s="202"/>
-      <c r="AG50" s="202"/>
-      <c r="AH50" s="202"/>
-      <c r="AI50" s="202"/>
-      <c r="AJ50" s="202"/>
-      <c r="AK50" s="202"/>
-      <c r="AL50" s="202"/>
-      <c r="AM50" s="202"/>
-      <c r="AN50" s="202"/>
-      <c r="AO50" s="202"/>
-      <c r="AP50" s="202"/>
-      <c r="AQ50" s="202"/>
+      <c r="AB50" s="186"/>
+      <c r="AC50" s="186"/>
+      <c r="AD50" s="186"/>
+      <c r="AE50" s="186"/>
+      <c r="AF50" s="186"/>
+      <c r="AG50" s="186"/>
+      <c r="AH50" s="186"/>
+      <c r="AI50" s="186"/>
+      <c r="AJ50" s="186"/>
+      <c r="AK50" s="186"/>
+      <c r="AL50" s="186"/>
+      <c r="AM50" s="186"/>
+      <c r="AN50" s="186"/>
+      <c r="AO50" s="186"/>
+      <c r="AP50" s="186"/>
+      <c r="AQ50" s="186"/>
       <c r="AR50" s="81" t="s">
         <v>98</v>
       </c>
@@ -40521,7 +40525,7 @@
       <c r="AX50" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="AY50" s="203" t="s">
+      <c r="AY50" s="82" t="s">
         <v>307</v>
       </c>
       <c r="AZ50" s="47" t="s">
@@ -40529,68 +40533,68 @@
       </c>
     </row>
     <row r="51" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="82"/>
-      <c r="D51" s="83" t="s">
+      <c r="C51" s="92"/>
+      <c r="D51" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="82"/>
-      <c r="F51" s="83" t="s">
+      <c r="E51" s="92"/>
+      <c r="F51" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G51" s="82"/>
-      <c r="H51" s="197" t="s">
+      <c r="G51" s="92"/>
+      <c r="H51" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="I51" s="198"/>
-      <c r="J51" s="199" t="s">
+      <c r="I51" s="182"/>
+      <c r="J51" s="183" t="s">
         <v>261</v>
       </c>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82">
+      <c r="K51" s="92"/>
+      <c r="L51" s="92"/>
+      <c r="M51" s="92">
         <v>1</v>
       </c>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82">
+      <c r="N51" s="92"/>
+      <c r="O51" s="92"/>
+      <c r="P51" s="92">
         <v>1</v>
       </c>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82">
+      <c r="Q51" s="92"/>
+      <c r="R51" s="92"/>
+      <c r="S51" s="92">
         <v>3</v>
       </c>
-      <c r="T51" s="82"/>
-      <c r="U51" s="197" t="s">
+      <c r="T51" s="92"/>
+      <c r="U51" s="181" t="s">
         <v>290</v>
       </c>
-      <c r="V51" s="200"/>
-      <c r="W51" s="200"/>
-      <c r="X51" s="200"/>
-      <c r="Y51" s="200"/>
-      <c r="Z51" s="201"/>
-      <c r="AA51" s="91" t="s">
+      <c r="V51" s="184"/>
+      <c r="W51" s="184"/>
+      <c r="X51" s="184"/>
+      <c r="Y51" s="184"/>
+      <c r="Z51" s="185"/>
+      <c r="AA51" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="AB51" s="202"/>
-      <c r="AC51" s="202"/>
-      <c r="AD51" s="202"/>
-      <c r="AE51" s="202"/>
-      <c r="AF51" s="202"/>
-      <c r="AG51" s="202"/>
-      <c r="AH51" s="202"/>
-      <c r="AI51" s="202"/>
-      <c r="AJ51" s="202"/>
-      <c r="AK51" s="202"/>
-      <c r="AL51" s="202"/>
-      <c r="AM51" s="202"/>
-      <c r="AN51" s="202"/>
-      <c r="AO51" s="202"/>
-      <c r="AP51" s="202"/>
-      <c r="AQ51" s="202"/>
+      <c r="AB51" s="186"/>
+      <c r="AC51" s="186"/>
+      <c r="AD51" s="186"/>
+      <c r="AE51" s="186"/>
+      <c r="AF51" s="186"/>
+      <c r="AG51" s="186"/>
+      <c r="AH51" s="186"/>
+      <c r="AI51" s="186"/>
+      <c r="AJ51" s="186"/>
+      <c r="AK51" s="186"/>
+      <c r="AL51" s="186"/>
+      <c r="AM51" s="186"/>
+      <c r="AN51" s="186"/>
+      <c r="AO51" s="186"/>
+      <c r="AP51" s="186"/>
+      <c r="AQ51" s="186"/>
       <c r="AR51" s="81" t="s">
         <v>98</v>
       </c>
@@ -40612,7 +40616,7 @@
       <c r="AX51" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="AY51" s="203" t="s">
+      <c r="AY51" s="82" t="s">
         <v>307</v>
       </c>
       <c r="AZ51" s="47" t="s">
@@ -40620,27 +40624,27 @@
       </c>
     </row>
     <row r="52" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="87" t="s">
+      <c r="B52" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="82"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="198"/>
+      <c r="E52" s="182"/>
       <c r="F52" s="204" t="s">
         <v>96</v>
       </c>
-      <c r="G52" s="198"/>
-      <c r="H52" s="197" t="s">
+      <c r="G52" s="182"/>
+      <c r="H52" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="I52" s="198"/>
-      <c r="J52" s="197" t="s">
+      <c r="I52" s="182"/>
+      <c r="J52" s="181" t="s">
         <v>262</v>
       </c>
       <c r="K52" s="205"/>
-      <c r="L52" s="198"/>
+      <c r="L52" s="182"/>
       <c r="M52" s="206">
         <v>1</v>
       </c>
@@ -40655,33 +40659,33 @@
         <v>3</v>
       </c>
       <c r="T52" s="208"/>
-      <c r="U52" s="197" t="s">
+      <c r="U52" s="181" t="s">
         <v>295</v>
       </c>
-      <c r="V52" s="200"/>
-      <c r="W52" s="200"/>
-      <c r="X52" s="200"/>
-      <c r="Y52" s="200"/>
-      <c r="Z52" s="201"/>
-      <c r="AA52" s="88" t="s">
+      <c r="V52" s="184"/>
+      <c r="W52" s="184"/>
+      <c r="X52" s="184"/>
+      <c r="Y52" s="184"/>
+      <c r="Z52" s="185"/>
+      <c r="AA52" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="AB52" s="89"/>
-      <c r="AC52" s="89"/>
-      <c r="AD52" s="89"/>
-      <c r="AE52" s="89"/>
-      <c r="AF52" s="89"/>
-      <c r="AG52" s="89"/>
-      <c r="AH52" s="89"/>
-      <c r="AI52" s="89"/>
-      <c r="AJ52" s="89"/>
-      <c r="AK52" s="89"/>
-      <c r="AL52" s="89"/>
-      <c r="AM52" s="89"/>
-      <c r="AN52" s="89"/>
-      <c r="AO52" s="89"/>
-      <c r="AP52" s="89"/>
-      <c r="AQ52" s="90"/>
+      <c r="AB52" s="95"/>
+      <c r="AC52" s="95"/>
+      <c r="AD52" s="95"/>
+      <c r="AE52" s="95"/>
+      <c r="AF52" s="95"/>
+      <c r="AG52" s="95"/>
+      <c r="AH52" s="95"/>
+      <c r="AI52" s="95"/>
+      <c r="AJ52" s="95"/>
+      <c r="AK52" s="95"/>
+      <c r="AL52" s="95"/>
+      <c r="AM52" s="95"/>
+      <c r="AN52" s="95"/>
+      <c r="AO52" s="95"/>
+      <c r="AP52" s="95"/>
+      <c r="AQ52" s="96"/>
       <c r="AR52" s="81" t="s">
         <v>98</v>
       </c>
@@ -40703,7 +40707,7 @@
       <c r="AX52" s="80" t="s">
         <v>309</v>
       </c>
-      <c r="AY52" s="203" t="s">
+      <c r="AY52" s="82" t="s">
         <v>310</v>
       </c>
       <c r="AZ52" s="47" t="s">
@@ -40711,27 +40715,27 @@
       </c>
     </row>
     <row r="53" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="87" t="s">
+      <c r="B53" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="82"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="198"/>
+      <c r="E53" s="182"/>
       <c r="F53" s="204" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="198"/>
-      <c r="H53" s="197" t="s">
+      <c r="G53" s="182"/>
+      <c r="H53" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="I53" s="198"/>
-      <c r="J53" s="197" t="s">
+      <c r="I53" s="182"/>
+      <c r="J53" s="181" t="s">
         <v>262</v>
       </c>
       <c r="K53" s="205"/>
-      <c r="L53" s="198"/>
+      <c r="L53" s="182"/>
       <c r="M53" s="206">
         <v>1</v>
       </c>
@@ -40746,33 +40750,33 @@
         <v>3</v>
       </c>
       <c r="T53" s="208"/>
-      <c r="U53" s="197" t="s">
+      <c r="U53" s="181" t="s">
         <v>291</v>
       </c>
-      <c r="V53" s="200"/>
-      <c r="W53" s="200"/>
-      <c r="X53" s="200"/>
-      <c r="Y53" s="200"/>
-      <c r="Z53" s="201"/>
-      <c r="AA53" s="88" t="s">
+      <c r="V53" s="184"/>
+      <c r="W53" s="184"/>
+      <c r="X53" s="184"/>
+      <c r="Y53" s="184"/>
+      <c r="Z53" s="185"/>
+      <c r="AA53" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="AB53" s="89"/>
-      <c r="AC53" s="89"/>
-      <c r="AD53" s="89"/>
-      <c r="AE53" s="89"/>
-      <c r="AF53" s="89"/>
-      <c r="AG53" s="89"/>
-      <c r="AH53" s="89"/>
-      <c r="AI53" s="89"/>
-      <c r="AJ53" s="89"/>
-      <c r="AK53" s="89"/>
-      <c r="AL53" s="89"/>
-      <c r="AM53" s="89"/>
-      <c r="AN53" s="89"/>
-      <c r="AO53" s="89"/>
-      <c r="AP53" s="89"/>
-      <c r="AQ53" s="90"/>
+      <c r="AB53" s="95"/>
+      <c r="AC53" s="95"/>
+      <c r="AD53" s="95"/>
+      <c r="AE53" s="95"/>
+      <c r="AF53" s="95"/>
+      <c r="AG53" s="95"/>
+      <c r="AH53" s="95"/>
+      <c r="AI53" s="95"/>
+      <c r="AJ53" s="95"/>
+      <c r="AK53" s="95"/>
+      <c r="AL53" s="95"/>
+      <c r="AM53" s="95"/>
+      <c r="AN53" s="95"/>
+      <c r="AO53" s="95"/>
+      <c r="AP53" s="95"/>
+      <c r="AQ53" s="96"/>
       <c r="AR53" s="81" t="s">
         <v>98</v>
       </c>
@@ -40794,7 +40798,7 @@
       <c r="AX53" s="80" t="s">
         <v>311</v>
       </c>
-      <c r="AY53" s="203" t="s">
+      <c r="AY53" s="82" t="s">
         <v>307</v>
       </c>
       <c r="AZ53" s="47" t="s">
@@ -40802,27 +40806,27 @@
       </c>
     </row>
     <row r="54" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="87" t="s">
+      <c r="B54" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="82"/>
+      <c r="C54" s="92"/>
       <c r="D54" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="198"/>
+      <c r="E54" s="182"/>
       <c r="F54" s="204" t="s">
         <v>96</v>
       </c>
-      <c r="G54" s="198"/>
-      <c r="H54" s="197" t="s">
+      <c r="G54" s="182"/>
+      <c r="H54" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="I54" s="198"/>
-      <c r="J54" s="197" t="s">
+      <c r="I54" s="182"/>
+      <c r="J54" s="181" t="s">
         <v>263</v>
       </c>
       <c r="K54" s="205"/>
-      <c r="L54" s="198"/>
+      <c r="L54" s="182"/>
       <c r="M54" s="206">
         <v>1</v>
       </c>
@@ -40837,33 +40841,33 @@
         <v>3</v>
       </c>
       <c r="T54" s="208"/>
-      <c r="U54" s="197" t="s">
+      <c r="U54" s="181" t="s">
         <v>296</v>
       </c>
-      <c r="V54" s="200"/>
-      <c r="W54" s="200"/>
-      <c r="X54" s="200"/>
-      <c r="Y54" s="200"/>
-      <c r="Z54" s="201"/>
-      <c r="AA54" s="88" t="s">
+      <c r="V54" s="184"/>
+      <c r="W54" s="184"/>
+      <c r="X54" s="184"/>
+      <c r="Y54" s="184"/>
+      <c r="Z54" s="185"/>
+      <c r="AA54" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="AB54" s="89"/>
-      <c r="AC54" s="89"/>
-      <c r="AD54" s="89"/>
-      <c r="AE54" s="89"/>
-      <c r="AF54" s="89"/>
-      <c r="AG54" s="89"/>
-      <c r="AH54" s="89"/>
-      <c r="AI54" s="89"/>
-      <c r="AJ54" s="89"/>
-      <c r="AK54" s="89"/>
-      <c r="AL54" s="89"/>
-      <c r="AM54" s="89"/>
-      <c r="AN54" s="89"/>
-      <c r="AO54" s="89"/>
-      <c r="AP54" s="89"/>
-      <c r="AQ54" s="90"/>
+      <c r="AB54" s="95"/>
+      <c r="AC54" s="95"/>
+      <c r="AD54" s="95"/>
+      <c r="AE54" s="95"/>
+      <c r="AF54" s="95"/>
+      <c r="AG54" s="95"/>
+      <c r="AH54" s="95"/>
+      <c r="AI54" s="95"/>
+      <c r="AJ54" s="95"/>
+      <c r="AK54" s="95"/>
+      <c r="AL54" s="95"/>
+      <c r="AM54" s="95"/>
+      <c r="AN54" s="95"/>
+      <c r="AO54" s="95"/>
+      <c r="AP54" s="95"/>
+      <c r="AQ54" s="96"/>
       <c r="AR54" s="81" t="s">
         <v>98</v>
       </c>
@@ -40885,7 +40889,7 @@
       <c r="AX54" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="AY54" s="203" t="s">
+      <c r="AY54" s="82" t="s">
         <v>313</v>
       </c>
       <c r="AZ54" s="47" t="s">
@@ -40893,27 +40897,27 @@
       </c>
     </row>
     <row r="55" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="87" t="s">
+      <c r="B55" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="82"/>
+      <c r="C55" s="92"/>
       <c r="D55" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="198"/>
+      <c r="E55" s="182"/>
       <c r="F55" s="204" t="s">
         <v>96</v>
       </c>
-      <c r="G55" s="198"/>
-      <c r="H55" s="197" t="s">
+      <c r="G55" s="182"/>
+      <c r="H55" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="I55" s="198"/>
-      <c r="J55" s="197" t="s">
+      <c r="I55" s="182"/>
+      <c r="J55" s="181" t="s">
         <v>263</v>
       </c>
       <c r="K55" s="205"/>
-      <c r="L55" s="198"/>
+      <c r="L55" s="182"/>
       <c r="M55" s="206">
         <v>1</v>
       </c>
@@ -40928,33 +40932,33 @@
         <v>3</v>
       </c>
       <c r="T55" s="208"/>
-      <c r="U55" s="197" t="s">
+      <c r="U55" s="181" t="s">
         <v>292</v>
       </c>
-      <c r="V55" s="200"/>
-      <c r="W55" s="200"/>
-      <c r="X55" s="200"/>
-      <c r="Y55" s="200"/>
-      <c r="Z55" s="201"/>
-      <c r="AA55" s="88" t="s">
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="185"/>
+      <c r="AA55" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="AB55" s="89"/>
-      <c r="AC55" s="89"/>
-      <c r="AD55" s="89"/>
-      <c r="AE55" s="89"/>
-      <c r="AF55" s="89"/>
-      <c r="AG55" s="89"/>
-      <c r="AH55" s="89"/>
-      <c r="AI55" s="89"/>
-      <c r="AJ55" s="89"/>
-      <c r="AK55" s="89"/>
-      <c r="AL55" s="89"/>
-      <c r="AM55" s="89"/>
-      <c r="AN55" s="89"/>
-      <c r="AO55" s="89"/>
-      <c r="AP55" s="89"/>
-      <c r="AQ55" s="90"/>
+      <c r="AB55" s="95"/>
+      <c r="AC55" s="95"/>
+      <c r="AD55" s="95"/>
+      <c r="AE55" s="95"/>
+      <c r="AF55" s="95"/>
+      <c r="AG55" s="95"/>
+      <c r="AH55" s="95"/>
+      <c r="AI55" s="95"/>
+      <c r="AJ55" s="95"/>
+      <c r="AK55" s="95"/>
+      <c r="AL55" s="95"/>
+      <c r="AM55" s="95"/>
+      <c r="AN55" s="95"/>
+      <c r="AO55" s="95"/>
+      <c r="AP55" s="95"/>
+      <c r="AQ55" s="96"/>
       <c r="AR55" s="81" t="s">
         <v>98</v>
       </c>
@@ -40976,7 +40980,7 @@
       <c r="AX55" s="80" t="s">
         <v>314</v>
       </c>
-      <c r="AY55" s="203" t="s">
+      <c r="AY55" s="82" t="s">
         <v>315</v>
       </c>
       <c r="AZ55" s="47" t="s">
@@ -40984,27 +40988,27 @@
       </c>
     </row>
     <row r="56" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="87" t="s">
+      <c r="B56" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="82"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="198"/>
+      <c r="E56" s="182"/>
       <c r="F56" s="204" t="s">
         <v>96</v>
       </c>
-      <c r="G56" s="198"/>
-      <c r="H56" s="197" t="s">
+      <c r="G56" s="182"/>
+      <c r="H56" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="I56" s="198"/>
-      <c r="J56" s="197" t="s">
+      <c r="I56" s="182"/>
+      <c r="J56" s="181" t="s">
         <v>264</v>
       </c>
       <c r="K56" s="205"/>
-      <c r="L56" s="198"/>
+      <c r="L56" s="182"/>
       <c r="M56" s="206">
         <v>1</v>
       </c>
@@ -41019,33 +41023,33 @@
         <v>3</v>
       </c>
       <c r="T56" s="208"/>
-      <c r="U56" s="197" t="s">
+      <c r="U56" s="181" t="s">
         <v>243</v>
       </c>
-      <c r="V56" s="200"/>
-      <c r="W56" s="200"/>
-      <c r="X56" s="200"/>
-      <c r="Y56" s="200"/>
-      <c r="Z56" s="201"/>
-      <c r="AA56" s="88" t="s">
+      <c r="V56" s="184"/>
+      <c r="W56" s="184"/>
+      <c r="X56" s="184"/>
+      <c r="Y56" s="184"/>
+      <c r="Z56" s="185"/>
+      <c r="AA56" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="AB56" s="89"/>
-      <c r="AC56" s="89"/>
-      <c r="AD56" s="89"/>
-      <c r="AE56" s="89"/>
-      <c r="AF56" s="89"/>
-      <c r="AG56" s="89"/>
-      <c r="AH56" s="89"/>
-      <c r="AI56" s="89"/>
-      <c r="AJ56" s="89"/>
-      <c r="AK56" s="89"/>
-      <c r="AL56" s="89"/>
-      <c r="AM56" s="89"/>
-      <c r="AN56" s="89"/>
-      <c r="AO56" s="89"/>
-      <c r="AP56" s="89"/>
-      <c r="AQ56" s="90"/>
+      <c r="AB56" s="95"/>
+      <c r="AC56" s="95"/>
+      <c r="AD56" s="95"/>
+      <c r="AE56" s="95"/>
+      <c r="AF56" s="95"/>
+      <c r="AG56" s="95"/>
+      <c r="AH56" s="95"/>
+      <c r="AI56" s="95"/>
+      <c r="AJ56" s="95"/>
+      <c r="AK56" s="95"/>
+      <c r="AL56" s="95"/>
+      <c r="AM56" s="95"/>
+      <c r="AN56" s="95"/>
+      <c r="AO56" s="95"/>
+      <c r="AP56" s="95"/>
+      <c r="AQ56" s="96"/>
       <c r="AR56" s="81" t="s">
         <v>98</v>
       </c>
@@ -41067,7 +41071,7 @@
       <c r="AX56" s="80" t="s">
         <v>316</v>
       </c>
-      <c r="AY56" s="203" t="s">
+      <c r="AY56" s="82" t="s">
         <v>285</v>
       </c>
       <c r="AZ56" s="47" t="s">
@@ -41075,68 +41079,68 @@
       </c>
     </row>
     <row r="57" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="87" t="s">
+      <c r="B57" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="82"/>
-      <c r="D57" s="83" t="s">
+      <c r="C57" s="92"/>
+      <c r="D57" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="82"/>
-      <c r="F57" s="83" t="s">
+      <c r="E57" s="92"/>
+      <c r="F57" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G57" s="82"/>
-      <c r="H57" s="197" t="s">
+      <c r="G57" s="92"/>
+      <c r="H57" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="I57" s="198"/>
-      <c r="J57" s="197" t="s">
+      <c r="I57" s="182"/>
+      <c r="J57" s="181" t="s">
         <v>264</v>
       </c>
       <c r="K57" s="205"/>
-      <c r="L57" s="198"/>
-      <c r="M57" s="82">
+      <c r="L57" s="182"/>
+      <c r="M57" s="92">
         <v>1</v>
       </c>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82">
+      <c r="N57" s="92"/>
+      <c r="O57" s="92"/>
+      <c r="P57" s="92">
         <v>1</v>
       </c>
-      <c r="Q57" s="82"/>
-      <c r="R57" s="82"/>
-      <c r="S57" s="82">
+      <c r="Q57" s="92"/>
+      <c r="R57" s="92"/>
+      <c r="S57" s="92">
         <v>3</v>
       </c>
-      <c r="T57" s="82"/>
-      <c r="U57" s="197" t="s">
+      <c r="T57" s="92"/>
+      <c r="U57" s="181" t="s">
         <v>244</v>
       </c>
-      <c r="V57" s="200"/>
-      <c r="W57" s="200"/>
-      <c r="X57" s="200"/>
-      <c r="Y57" s="200"/>
-      <c r="Z57" s="201"/>
-      <c r="AA57" s="88" t="s">
+      <c r="V57" s="184"/>
+      <c r="W57" s="184"/>
+      <c r="X57" s="184"/>
+      <c r="Y57" s="184"/>
+      <c r="Z57" s="185"/>
+      <c r="AA57" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="AB57" s="89"/>
-      <c r="AC57" s="89"/>
-      <c r="AD57" s="89"/>
-      <c r="AE57" s="89"/>
-      <c r="AF57" s="89"/>
-      <c r="AG57" s="89"/>
-      <c r="AH57" s="89"/>
-      <c r="AI57" s="89"/>
-      <c r="AJ57" s="89"/>
-      <c r="AK57" s="89"/>
-      <c r="AL57" s="89"/>
-      <c r="AM57" s="89"/>
-      <c r="AN57" s="89"/>
-      <c r="AO57" s="89"/>
-      <c r="AP57" s="89"/>
-      <c r="AQ57" s="90"/>
+      <c r="AB57" s="95"/>
+      <c r="AC57" s="95"/>
+      <c r="AD57" s="95"/>
+      <c r="AE57" s="95"/>
+      <c r="AF57" s="95"/>
+      <c r="AG57" s="95"/>
+      <c r="AH57" s="95"/>
+      <c r="AI57" s="95"/>
+      <c r="AJ57" s="95"/>
+      <c r="AK57" s="95"/>
+      <c r="AL57" s="95"/>
+      <c r="AM57" s="95"/>
+      <c r="AN57" s="95"/>
+      <c r="AO57" s="95"/>
+      <c r="AP57" s="95"/>
+      <c r="AQ57" s="96"/>
       <c r="AR57" s="81" t="s">
         <v>98</v>
       </c>
@@ -41158,7 +41162,7 @@
       <c r="AX57" s="80" t="s">
         <v>316</v>
       </c>
-      <c r="AY57" s="203" t="s">
+      <c r="AY57" s="82" t="s">
         <v>317</v>
       </c>
       <c r="AZ57" s="47" t="s">
@@ -41166,68 +41170,68 @@
       </c>
     </row>
     <row r="58" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="87" t="s">
+      <c r="B58" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="82"/>
-      <c r="D58" s="83" t="s">
+      <c r="C58" s="92"/>
+      <c r="D58" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E58" s="82"/>
-      <c r="F58" s="83" t="s">
+      <c r="E58" s="92"/>
+      <c r="F58" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="82"/>
-      <c r="H58" s="197" t="s">
+      <c r="G58" s="92"/>
+      <c r="H58" s="181" t="s">
         <v>258</v>
       </c>
-      <c r="I58" s="198"/>
-      <c r="J58" s="199" t="s">
+      <c r="I58" s="182"/>
+      <c r="J58" s="183" t="s">
         <v>265</v>
       </c>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82">
+      <c r="K58" s="92"/>
+      <c r="L58" s="92"/>
+      <c r="M58" s="92">
         <v>1</v>
       </c>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
-      <c r="P58" s="82">
+      <c r="N58" s="92"/>
+      <c r="O58" s="92"/>
+      <c r="P58" s="92">
         <v>1</v>
       </c>
-      <c r="Q58" s="82"/>
-      <c r="R58" s="82"/>
-      <c r="S58" s="82">
+      <c r="Q58" s="92"/>
+      <c r="R58" s="92"/>
+      <c r="S58" s="92">
         <v>3</v>
       </c>
-      <c r="T58" s="82"/>
-      <c r="U58" s="197" t="s">
+      <c r="T58" s="92"/>
+      <c r="U58" s="181" t="s">
         <v>245</v>
       </c>
-      <c r="V58" s="200"/>
-      <c r="W58" s="200"/>
-      <c r="X58" s="200"/>
-      <c r="Y58" s="200"/>
-      <c r="Z58" s="201"/>
-      <c r="AA58" s="91" t="s">
+      <c r="V58" s="184"/>
+      <c r="W58" s="184"/>
+      <c r="X58" s="184"/>
+      <c r="Y58" s="184"/>
+      <c r="Z58" s="185"/>
+      <c r="AA58" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="AB58" s="202"/>
-      <c r="AC58" s="202"/>
-      <c r="AD58" s="202"/>
-      <c r="AE58" s="202"/>
-      <c r="AF58" s="202"/>
-      <c r="AG58" s="202"/>
-      <c r="AH58" s="202"/>
-      <c r="AI58" s="202"/>
-      <c r="AJ58" s="202"/>
-      <c r="AK58" s="202"/>
-      <c r="AL58" s="202"/>
-      <c r="AM58" s="202"/>
-      <c r="AN58" s="202"/>
-      <c r="AO58" s="202"/>
-      <c r="AP58" s="202"/>
-      <c r="AQ58" s="202"/>
+      <c r="AB58" s="186"/>
+      <c r="AC58" s="186"/>
+      <c r="AD58" s="186"/>
+      <c r="AE58" s="186"/>
+      <c r="AF58" s="186"/>
+      <c r="AG58" s="186"/>
+      <c r="AH58" s="186"/>
+      <c r="AI58" s="186"/>
+      <c r="AJ58" s="186"/>
+      <c r="AK58" s="186"/>
+      <c r="AL58" s="186"/>
+      <c r="AM58" s="186"/>
+      <c r="AN58" s="186"/>
+      <c r="AO58" s="186"/>
+      <c r="AP58" s="186"/>
+      <c r="AQ58" s="186"/>
       <c r="AR58" s="81" t="s">
         <v>98</v>
       </c>
@@ -41249,7 +41253,7 @@
       <c r="AX58" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="AY58" s="203" t="s">
+      <c r="AY58" s="82" t="s">
         <v>319</v>
       </c>
       <c r="AZ58" s="47" t="s">
@@ -41257,68 +41261,68 @@
       </c>
     </row>
     <row r="59" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="87" t="s">
+      <c r="B59" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="82"/>
-      <c r="D59" s="83" t="s">
+      <c r="C59" s="92"/>
+      <c r="D59" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="82"/>
-      <c r="F59" s="83" t="s">
+      <c r="E59" s="92"/>
+      <c r="F59" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G59" s="82"/>
-      <c r="H59" s="197" t="s">
+      <c r="G59" s="92"/>
+      <c r="H59" s="181" t="s">
         <v>258</v>
       </c>
-      <c r="I59" s="198"/>
-      <c r="J59" s="199" t="s">
+      <c r="I59" s="182"/>
+      <c r="J59" s="183" t="s">
         <v>265</v>
       </c>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82">
+      <c r="K59" s="92"/>
+      <c r="L59" s="92"/>
+      <c r="M59" s="92">
         <v>1</v>
       </c>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="82">
+      <c r="N59" s="92"/>
+      <c r="O59" s="92"/>
+      <c r="P59" s="92">
         <v>1</v>
       </c>
-      <c r="Q59" s="82"/>
-      <c r="R59" s="82"/>
-      <c r="S59" s="82">
+      <c r="Q59" s="92"/>
+      <c r="R59" s="92"/>
+      <c r="S59" s="92">
         <v>3</v>
       </c>
-      <c r="T59" s="82"/>
-      <c r="U59" s="197" t="s">
+      <c r="T59" s="92"/>
+      <c r="U59" s="181" t="s">
         <v>246</v>
       </c>
-      <c r="V59" s="200"/>
-      <c r="W59" s="200"/>
-      <c r="X59" s="200"/>
-      <c r="Y59" s="200"/>
-      <c r="Z59" s="201"/>
-      <c r="AA59" s="91" t="s">
+      <c r="V59" s="184"/>
+      <c r="W59" s="184"/>
+      <c r="X59" s="184"/>
+      <c r="Y59" s="184"/>
+      <c r="Z59" s="185"/>
+      <c r="AA59" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="AB59" s="202"/>
-      <c r="AC59" s="202"/>
-      <c r="AD59" s="202"/>
-      <c r="AE59" s="202"/>
-      <c r="AF59" s="202"/>
-      <c r="AG59" s="202"/>
-      <c r="AH59" s="202"/>
-      <c r="AI59" s="202"/>
-      <c r="AJ59" s="202"/>
-      <c r="AK59" s="202"/>
-      <c r="AL59" s="202"/>
-      <c r="AM59" s="202"/>
-      <c r="AN59" s="202"/>
-      <c r="AO59" s="202"/>
-      <c r="AP59" s="202"/>
-      <c r="AQ59" s="202"/>
+      <c r="AB59" s="186"/>
+      <c r="AC59" s="186"/>
+      <c r="AD59" s="186"/>
+      <c r="AE59" s="186"/>
+      <c r="AF59" s="186"/>
+      <c r="AG59" s="186"/>
+      <c r="AH59" s="186"/>
+      <c r="AI59" s="186"/>
+      <c r="AJ59" s="186"/>
+      <c r="AK59" s="186"/>
+      <c r="AL59" s="186"/>
+      <c r="AM59" s="186"/>
+      <c r="AN59" s="186"/>
+      <c r="AO59" s="186"/>
+      <c r="AP59" s="186"/>
+      <c r="AQ59" s="186"/>
       <c r="AR59" s="81" t="s">
         <v>98</v>
       </c>
@@ -41340,7 +41344,7 @@
       <c r="AX59" s="80" t="s">
         <v>314</v>
       </c>
-      <c r="AY59" s="203" t="s">
+      <c r="AY59" s="82" t="s">
         <v>320</v>
       </c>
       <c r="AZ59" s="47" t="s">
@@ -41348,68 +41352,68 @@
       </c>
     </row>
     <row r="60" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="87" t="s">
+      <c r="B60" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="82"/>
-      <c r="D60" s="83" t="s">
+      <c r="C60" s="92"/>
+      <c r="D60" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E60" s="82"/>
-      <c r="F60" s="83" t="s">
+      <c r="E60" s="92"/>
+      <c r="F60" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="82"/>
-      <c r="H60" s="197" t="s">
+      <c r="G60" s="92"/>
+      <c r="H60" s="181" t="s">
         <v>258</v>
       </c>
-      <c r="I60" s="198"/>
-      <c r="J60" s="199" t="s">
+      <c r="I60" s="182"/>
+      <c r="J60" s="183" t="s">
         <v>265</v>
       </c>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82">
+      <c r="K60" s="92"/>
+      <c r="L60" s="92"/>
+      <c r="M60" s="92">
         <v>1</v>
       </c>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="82">
+      <c r="N60" s="92"/>
+      <c r="O60" s="92"/>
+      <c r="P60" s="92">
         <v>1</v>
       </c>
-      <c r="Q60" s="82"/>
-      <c r="R60" s="82"/>
-      <c r="S60" s="82">
+      <c r="Q60" s="92"/>
+      <c r="R60" s="92"/>
+      <c r="S60" s="92">
         <v>3</v>
       </c>
-      <c r="T60" s="82"/>
-      <c r="U60" s="197" t="s">
+      <c r="T60" s="92"/>
+      <c r="U60" s="181" t="s">
         <v>247</v>
       </c>
-      <c r="V60" s="200"/>
-      <c r="W60" s="200"/>
-      <c r="X60" s="200"/>
-      <c r="Y60" s="200"/>
-      <c r="Z60" s="201"/>
-      <c r="AA60" s="91" t="s">
+      <c r="V60" s="184"/>
+      <c r="W60" s="184"/>
+      <c r="X60" s="184"/>
+      <c r="Y60" s="184"/>
+      <c r="Z60" s="185"/>
+      <c r="AA60" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="AB60" s="202"/>
-      <c r="AC60" s="202"/>
-      <c r="AD60" s="202"/>
-      <c r="AE60" s="202"/>
-      <c r="AF60" s="202"/>
-      <c r="AG60" s="202"/>
-      <c r="AH60" s="202"/>
-      <c r="AI60" s="202"/>
-      <c r="AJ60" s="202"/>
-      <c r="AK60" s="202"/>
-      <c r="AL60" s="202"/>
-      <c r="AM60" s="202"/>
-      <c r="AN60" s="202"/>
-      <c r="AO60" s="202"/>
-      <c r="AP60" s="202"/>
-      <c r="AQ60" s="202"/>
+      <c r="AB60" s="186"/>
+      <c r="AC60" s="186"/>
+      <c r="AD60" s="186"/>
+      <c r="AE60" s="186"/>
+      <c r="AF60" s="186"/>
+      <c r="AG60" s="186"/>
+      <c r="AH60" s="186"/>
+      <c r="AI60" s="186"/>
+      <c r="AJ60" s="186"/>
+      <c r="AK60" s="186"/>
+      <c r="AL60" s="186"/>
+      <c r="AM60" s="186"/>
+      <c r="AN60" s="186"/>
+      <c r="AO60" s="186"/>
+      <c r="AP60" s="186"/>
+      <c r="AQ60" s="186"/>
       <c r="AR60" s="81" t="s">
         <v>98</v>
       </c>
@@ -41431,7 +41435,7 @@
       <c r="AX60" s="80" t="s">
         <v>321</v>
       </c>
-      <c r="AY60" s="203" t="s">
+      <c r="AY60" s="82" t="s">
         <v>322</v>
       </c>
       <c r="AZ60" s="47" t="s">
@@ -41439,68 +41443,68 @@
       </c>
     </row>
     <row r="61" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="87" t="s">
+      <c r="B61" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="82"/>
-      <c r="D61" s="83" t="s">
+      <c r="C61" s="92"/>
+      <c r="D61" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="82"/>
-      <c r="F61" s="83" t="s">
+      <c r="E61" s="92"/>
+      <c r="F61" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G61" s="82"/>
-      <c r="H61" s="197" t="s">
+      <c r="G61" s="92"/>
+      <c r="H61" s="181" t="s">
         <v>258</v>
       </c>
-      <c r="I61" s="198"/>
-      <c r="J61" s="199" t="s">
+      <c r="I61" s="182"/>
+      <c r="J61" s="183" t="s">
         <v>265</v>
       </c>
-      <c r="K61" s="82"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="82">
+      <c r="K61" s="92"/>
+      <c r="L61" s="92"/>
+      <c r="M61" s="92">
         <v>1</v>
       </c>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="82">
+      <c r="N61" s="92"/>
+      <c r="O61" s="92"/>
+      <c r="P61" s="92">
         <v>1</v>
       </c>
-      <c r="Q61" s="82"/>
-      <c r="R61" s="82"/>
-      <c r="S61" s="82">
+      <c r="Q61" s="92"/>
+      <c r="R61" s="92"/>
+      <c r="S61" s="92">
         <v>3</v>
       </c>
-      <c r="T61" s="82"/>
-      <c r="U61" s="197" t="s">
+      <c r="T61" s="92"/>
+      <c r="U61" s="181" t="s">
         <v>248</v>
       </c>
-      <c r="V61" s="200"/>
-      <c r="W61" s="200"/>
-      <c r="X61" s="200"/>
-      <c r="Y61" s="200"/>
-      <c r="Z61" s="201"/>
-      <c r="AA61" s="91" t="s">
+      <c r="V61" s="184"/>
+      <c r="W61" s="184"/>
+      <c r="X61" s="184"/>
+      <c r="Y61" s="184"/>
+      <c r="Z61" s="185"/>
+      <c r="AA61" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="AB61" s="202"/>
-      <c r="AC61" s="202"/>
-      <c r="AD61" s="202"/>
-      <c r="AE61" s="202"/>
-      <c r="AF61" s="202"/>
-      <c r="AG61" s="202"/>
-      <c r="AH61" s="202"/>
-      <c r="AI61" s="202"/>
-      <c r="AJ61" s="202"/>
-      <c r="AK61" s="202"/>
-      <c r="AL61" s="202"/>
-      <c r="AM61" s="202"/>
-      <c r="AN61" s="202"/>
-      <c r="AO61" s="202"/>
-      <c r="AP61" s="202"/>
-      <c r="AQ61" s="202"/>
+      <c r="AB61" s="186"/>
+      <c r="AC61" s="186"/>
+      <c r="AD61" s="186"/>
+      <c r="AE61" s="186"/>
+      <c r="AF61" s="186"/>
+      <c r="AG61" s="186"/>
+      <c r="AH61" s="186"/>
+      <c r="AI61" s="186"/>
+      <c r="AJ61" s="186"/>
+      <c r="AK61" s="186"/>
+      <c r="AL61" s="186"/>
+      <c r="AM61" s="186"/>
+      <c r="AN61" s="186"/>
+      <c r="AO61" s="186"/>
+      <c r="AP61" s="186"/>
+      <c r="AQ61" s="186"/>
       <c r="AR61" s="81" t="s">
         <v>98</v>
       </c>
@@ -41522,7 +41526,7 @@
       <c r="AX61" s="80" t="s">
         <v>323</v>
       </c>
-      <c r="AY61" s="203" t="s">
+      <c r="AY61" s="82" t="s">
         <v>324</v>
       </c>
       <c r="AZ61" s="47" t="s">
@@ -41530,68 +41534,68 @@
       </c>
     </row>
     <row r="62" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="87" t="s">
+      <c r="B62" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="82"/>
-      <c r="D62" s="83" t="s">
+      <c r="C62" s="92"/>
+      <c r="D62" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E62" s="82"/>
-      <c r="F62" s="83" t="s">
+      <c r="E62" s="92"/>
+      <c r="F62" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G62" s="82"/>
-      <c r="H62" s="197" t="s">
+      <c r="G62" s="92"/>
+      <c r="H62" s="181" t="s">
         <v>258</v>
       </c>
-      <c r="I62" s="198"/>
-      <c r="J62" s="199" t="s">
+      <c r="I62" s="182"/>
+      <c r="J62" s="183" t="s">
         <v>265</v>
       </c>
-      <c r="K62" s="82"/>
-      <c r="L62" s="82"/>
-      <c r="M62" s="82">
+      <c r="K62" s="92"/>
+      <c r="L62" s="92"/>
+      <c r="M62" s="92">
         <v>1</v>
       </c>
-      <c r="N62" s="82"/>
-      <c r="O62" s="82"/>
-      <c r="P62" s="82">
+      <c r="N62" s="92"/>
+      <c r="O62" s="92"/>
+      <c r="P62" s="92">
         <v>1</v>
       </c>
-      <c r="Q62" s="82"/>
-      <c r="R62" s="82"/>
-      <c r="S62" s="82">
+      <c r="Q62" s="92"/>
+      <c r="R62" s="92"/>
+      <c r="S62" s="92">
         <v>3</v>
       </c>
-      <c r="T62" s="82"/>
-      <c r="U62" s="197" t="s">
+      <c r="T62" s="92"/>
+      <c r="U62" s="181" t="s">
         <v>249</v>
       </c>
-      <c r="V62" s="200"/>
-      <c r="W62" s="200"/>
-      <c r="X62" s="200"/>
-      <c r="Y62" s="200"/>
-      <c r="Z62" s="201"/>
-      <c r="AA62" s="91" t="s">
+      <c r="V62" s="184"/>
+      <c r="W62" s="184"/>
+      <c r="X62" s="184"/>
+      <c r="Y62" s="184"/>
+      <c r="Z62" s="185"/>
+      <c r="AA62" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="AB62" s="202"/>
-      <c r="AC62" s="202"/>
-      <c r="AD62" s="202"/>
-      <c r="AE62" s="202"/>
-      <c r="AF62" s="202"/>
-      <c r="AG62" s="202"/>
-      <c r="AH62" s="202"/>
-      <c r="AI62" s="202"/>
-      <c r="AJ62" s="202"/>
-      <c r="AK62" s="202"/>
-      <c r="AL62" s="202"/>
-      <c r="AM62" s="202"/>
-      <c r="AN62" s="202"/>
-      <c r="AO62" s="202"/>
-      <c r="AP62" s="202"/>
-      <c r="AQ62" s="202"/>
+      <c r="AB62" s="186"/>
+      <c r="AC62" s="186"/>
+      <c r="AD62" s="186"/>
+      <c r="AE62" s="186"/>
+      <c r="AF62" s="186"/>
+      <c r="AG62" s="186"/>
+      <c r="AH62" s="186"/>
+      <c r="AI62" s="186"/>
+      <c r="AJ62" s="186"/>
+      <c r="AK62" s="186"/>
+      <c r="AL62" s="186"/>
+      <c r="AM62" s="186"/>
+      <c r="AN62" s="186"/>
+      <c r="AO62" s="186"/>
+      <c r="AP62" s="186"/>
+      <c r="AQ62" s="186"/>
       <c r="AR62" s="81" t="s">
         <v>98</v>
       </c>
@@ -41613,7 +41617,7 @@
       <c r="AX62" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="AY62" s="203" t="s">
+      <c r="AY62" s="82" t="s">
         <v>326</v>
       </c>
       <c r="AZ62" s="47" t="s">
@@ -41621,68 +41625,68 @@
       </c>
     </row>
     <row r="63" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="87" t="s">
+      <c r="B63" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="82"/>
-      <c r="D63" s="83" t="s">
+      <c r="C63" s="92"/>
+      <c r="D63" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="82"/>
-      <c r="F63" s="83" t="s">
+      <c r="E63" s="92"/>
+      <c r="F63" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G63" s="82"/>
-      <c r="H63" s="197" t="s">
+      <c r="G63" s="92"/>
+      <c r="H63" s="181" t="s">
         <v>258</v>
       </c>
-      <c r="I63" s="198"/>
-      <c r="J63" s="199" t="s">
+      <c r="I63" s="182"/>
+      <c r="J63" s="183" t="s">
         <v>266</v>
       </c>
-      <c r="K63" s="82"/>
-      <c r="L63" s="82"/>
-      <c r="M63" s="82">
+      <c r="K63" s="92"/>
+      <c r="L63" s="92"/>
+      <c r="M63" s="92">
         <v>1</v>
       </c>
-      <c r="N63" s="82"/>
-      <c r="O63" s="82"/>
-      <c r="P63" s="82">
+      <c r="N63" s="92"/>
+      <c r="O63" s="92"/>
+      <c r="P63" s="92">
         <v>1</v>
       </c>
-      <c r="Q63" s="82"/>
-      <c r="R63" s="82"/>
-      <c r="S63" s="82">
+      <c r="Q63" s="92"/>
+      <c r="R63" s="92"/>
+      <c r="S63" s="92">
         <v>3</v>
       </c>
-      <c r="T63" s="82"/>
-      <c r="U63" s="197" t="s">
+      <c r="T63" s="92"/>
+      <c r="U63" s="181" t="s">
         <v>250</v>
       </c>
-      <c r="V63" s="200"/>
-      <c r="W63" s="200"/>
-      <c r="X63" s="200"/>
-      <c r="Y63" s="200"/>
-      <c r="Z63" s="201"/>
-      <c r="AA63" s="91" t="s">
+      <c r="V63" s="184"/>
+      <c r="W63" s="184"/>
+      <c r="X63" s="184"/>
+      <c r="Y63" s="184"/>
+      <c r="Z63" s="185"/>
+      <c r="AA63" s="89" t="s">
         <v>284</v>
       </c>
-      <c r="AB63" s="202"/>
-      <c r="AC63" s="202"/>
-      <c r="AD63" s="202"/>
-      <c r="AE63" s="202"/>
-      <c r="AF63" s="202"/>
-      <c r="AG63" s="202"/>
-      <c r="AH63" s="202"/>
-      <c r="AI63" s="202"/>
-      <c r="AJ63" s="202"/>
-      <c r="AK63" s="202"/>
-      <c r="AL63" s="202"/>
-      <c r="AM63" s="202"/>
-      <c r="AN63" s="202"/>
-      <c r="AO63" s="202"/>
-      <c r="AP63" s="202"/>
-      <c r="AQ63" s="202"/>
+      <c r="AB63" s="186"/>
+      <c r="AC63" s="186"/>
+      <c r="AD63" s="186"/>
+      <c r="AE63" s="186"/>
+      <c r="AF63" s="186"/>
+      <c r="AG63" s="186"/>
+      <c r="AH63" s="186"/>
+      <c r="AI63" s="186"/>
+      <c r="AJ63" s="186"/>
+      <c r="AK63" s="186"/>
+      <c r="AL63" s="186"/>
+      <c r="AM63" s="186"/>
+      <c r="AN63" s="186"/>
+      <c r="AO63" s="186"/>
+      <c r="AP63" s="186"/>
+      <c r="AQ63" s="186"/>
       <c r="AR63" s="81" t="s">
         <v>98</v>
       </c>
@@ -41704,7 +41708,7 @@
       <c r="AX63" s="80" t="s">
         <v>327</v>
       </c>
-      <c r="AY63" s="203" t="s">
+      <c r="AY63" s="82" t="s">
         <v>328</v>
       </c>
       <c r="AZ63" s="47" t="s">
@@ -41712,68 +41716,68 @@
       </c>
     </row>
     <row r="64" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="87" t="s">
+      <c r="B64" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="83" t="s">
+      <c r="C64" s="92"/>
+      <c r="D64" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E64" s="82"/>
-      <c r="F64" s="83" t="s">
+      <c r="E64" s="92"/>
+      <c r="F64" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G64" s="82"/>
-      <c r="H64" s="197" t="s">
+      <c r="G64" s="92"/>
+      <c r="H64" s="181" t="s">
         <v>258</v>
       </c>
-      <c r="I64" s="198"/>
-      <c r="J64" s="199" t="s">
+      <c r="I64" s="182"/>
+      <c r="J64" s="183" t="s">
         <v>266</v>
       </c>
-      <c r="K64" s="82"/>
-      <c r="L64" s="82"/>
-      <c r="M64" s="82">
+      <c r="K64" s="92"/>
+      <c r="L64" s="92"/>
+      <c r="M64" s="92">
         <v>1</v>
       </c>
-      <c r="N64" s="82"/>
-      <c r="O64" s="82"/>
-      <c r="P64" s="82">
+      <c r="N64" s="92"/>
+      <c r="O64" s="92"/>
+      <c r="P64" s="92">
         <v>1</v>
       </c>
-      <c r="Q64" s="82"/>
-      <c r="R64" s="82"/>
-      <c r="S64" s="82">
+      <c r="Q64" s="92"/>
+      <c r="R64" s="92"/>
+      <c r="S64" s="92">
         <v>3</v>
       </c>
-      <c r="T64" s="82"/>
-      <c r="U64" s="197" t="s">
+      <c r="T64" s="92"/>
+      <c r="U64" s="181" t="s">
         <v>251</v>
       </c>
-      <c r="V64" s="200"/>
-      <c r="W64" s="200"/>
-      <c r="X64" s="200"/>
-      <c r="Y64" s="200"/>
-      <c r="Z64" s="201"/>
-      <c r="AA64" s="91" t="s">
+      <c r="V64" s="184"/>
+      <c r="W64" s="184"/>
+      <c r="X64" s="184"/>
+      <c r="Y64" s="184"/>
+      <c r="Z64" s="185"/>
+      <c r="AA64" s="89" t="s">
         <v>284</v>
       </c>
-      <c r="AB64" s="202"/>
-      <c r="AC64" s="202"/>
-      <c r="AD64" s="202"/>
-      <c r="AE64" s="202"/>
-      <c r="AF64" s="202"/>
-      <c r="AG64" s="202"/>
-      <c r="AH64" s="202"/>
-      <c r="AI64" s="202"/>
-      <c r="AJ64" s="202"/>
-      <c r="AK64" s="202"/>
-      <c r="AL64" s="202"/>
-      <c r="AM64" s="202"/>
-      <c r="AN64" s="202"/>
-      <c r="AO64" s="202"/>
-      <c r="AP64" s="202"/>
-      <c r="AQ64" s="202"/>
+      <c r="AB64" s="186"/>
+      <c r="AC64" s="186"/>
+      <c r="AD64" s="186"/>
+      <c r="AE64" s="186"/>
+      <c r="AF64" s="186"/>
+      <c r="AG64" s="186"/>
+      <c r="AH64" s="186"/>
+      <c r="AI64" s="186"/>
+      <c r="AJ64" s="186"/>
+      <c r="AK64" s="186"/>
+      <c r="AL64" s="186"/>
+      <c r="AM64" s="186"/>
+      <c r="AN64" s="186"/>
+      <c r="AO64" s="186"/>
+      <c r="AP64" s="186"/>
+      <c r="AQ64" s="186"/>
       <c r="AR64" s="81" t="s">
         <v>98</v>
       </c>
@@ -41795,7 +41799,7 @@
       <c r="AX64" s="80" t="s">
         <v>329</v>
       </c>
-      <c r="AY64" s="203" t="s">
+      <c r="AY64" s="82" t="s">
         <v>330</v>
       </c>
       <c r="AZ64" s="47" t="s">
@@ -41803,68 +41807,68 @@
       </c>
     </row>
     <row r="65" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="87" t="s">
+      <c r="B65" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="83" t="s">
+      <c r="C65" s="92"/>
+      <c r="D65" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="82"/>
-      <c r="F65" s="83" t="s">
+      <c r="E65" s="92"/>
+      <c r="F65" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G65" s="82"/>
-      <c r="H65" s="197" t="s">
+      <c r="G65" s="92"/>
+      <c r="H65" s="181" t="s">
         <v>258</v>
       </c>
-      <c r="I65" s="198"/>
-      <c r="J65" s="199" t="s">
+      <c r="I65" s="182"/>
+      <c r="J65" s="183" t="s">
         <v>267</v>
       </c>
-      <c r="K65" s="82"/>
-      <c r="L65" s="82"/>
-      <c r="M65" s="82">
+      <c r="K65" s="92"/>
+      <c r="L65" s="92"/>
+      <c r="M65" s="92">
         <v>1</v>
       </c>
-      <c r="N65" s="82"/>
-      <c r="O65" s="82"/>
-      <c r="P65" s="82">
+      <c r="N65" s="92"/>
+      <c r="O65" s="92"/>
+      <c r="P65" s="92">
         <v>1</v>
       </c>
-      <c r="Q65" s="82"/>
-      <c r="R65" s="82"/>
-      <c r="S65" s="82">
+      <c r="Q65" s="92"/>
+      <c r="R65" s="92"/>
+      <c r="S65" s="92">
         <v>3</v>
       </c>
-      <c r="T65" s="82"/>
-      <c r="U65" s="197" t="s">
+      <c r="T65" s="92"/>
+      <c r="U65" s="181" t="s">
         <v>252</v>
       </c>
-      <c r="V65" s="200"/>
-      <c r="W65" s="200"/>
-      <c r="X65" s="200"/>
-      <c r="Y65" s="200"/>
-      <c r="Z65" s="201"/>
-      <c r="AA65" s="91" t="s">
+      <c r="V65" s="184"/>
+      <c r="W65" s="184"/>
+      <c r="X65" s="184"/>
+      <c r="Y65" s="184"/>
+      <c r="Z65" s="185"/>
+      <c r="AA65" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="AB65" s="202"/>
-      <c r="AC65" s="202"/>
-      <c r="AD65" s="202"/>
-      <c r="AE65" s="202"/>
-      <c r="AF65" s="202"/>
-      <c r="AG65" s="202"/>
-      <c r="AH65" s="202"/>
-      <c r="AI65" s="202"/>
-      <c r="AJ65" s="202"/>
-      <c r="AK65" s="202"/>
-      <c r="AL65" s="202"/>
-      <c r="AM65" s="202"/>
-      <c r="AN65" s="202"/>
-      <c r="AO65" s="202"/>
-      <c r="AP65" s="202"/>
-      <c r="AQ65" s="202"/>
+      <c r="AB65" s="186"/>
+      <c r="AC65" s="186"/>
+      <c r="AD65" s="186"/>
+      <c r="AE65" s="186"/>
+      <c r="AF65" s="186"/>
+      <c r="AG65" s="186"/>
+      <c r="AH65" s="186"/>
+      <c r="AI65" s="186"/>
+      <c r="AJ65" s="186"/>
+      <c r="AK65" s="186"/>
+      <c r="AL65" s="186"/>
+      <c r="AM65" s="186"/>
+      <c r="AN65" s="186"/>
+      <c r="AO65" s="186"/>
+      <c r="AP65" s="186"/>
+      <c r="AQ65" s="186"/>
       <c r="AR65" s="81" t="s">
         <v>98</v>
       </c>
@@ -41886,7 +41890,7 @@
       <c r="AX65" s="80" t="s">
         <v>331</v>
       </c>
-      <c r="AY65" s="203" t="s">
+      <c r="AY65" s="82" t="s">
         <v>286</v>
       </c>
       <c r="AZ65" s="47" t="s">
@@ -41894,68 +41898,68 @@
       </c>
     </row>
     <row r="66" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="87" t="s">
+      <c r="B66" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="83" t="s">
+      <c r="C66" s="92"/>
+      <c r="D66" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E66" s="82"/>
-      <c r="F66" s="83" t="s">
+      <c r="E66" s="92"/>
+      <c r="F66" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G66" s="82"/>
-      <c r="H66" s="197" t="s">
+      <c r="G66" s="92"/>
+      <c r="H66" s="181" t="s">
         <v>258</v>
       </c>
-      <c r="I66" s="198"/>
-      <c r="J66" s="199" t="s">
+      <c r="I66" s="182"/>
+      <c r="J66" s="183" t="s">
         <v>268</v>
       </c>
-      <c r="K66" s="82"/>
-      <c r="L66" s="82"/>
-      <c r="M66" s="82">
+      <c r="K66" s="92"/>
+      <c r="L66" s="92"/>
+      <c r="M66" s="92">
         <v>1</v>
       </c>
-      <c r="N66" s="82"/>
-      <c r="O66" s="82"/>
-      <c r="P66" s="82">
+      <c r="N66" s="92"/>
+      <c r="O66" s="92"/>
+      <c r="P66" s="92">
         <v>1</v>
       </c>
-      <c r="Q66" s="82"/>
-      <c r="R66" s="82"/>
-      <c r="S66" s="82">
+      <c r="Q66" s="92"/>
+      <c r="R66" s="92"/>
+      <c r="S66" s="92">
         <v>3</v>
       </c>
-      <c r="T66" s="82"/>
-      <c r="U66" s="197" t="s">
+      <c r="T66" s="92"/>
+      <c r="U66" s="181" t="s">
         <v>253</v>
       </c>
-      <c r="V66" s="200"/>
-      <c r="W66" s="200"/>
-      <c r="X66" s="200"/>
-      <c r="Y66" s="200"/>
-      <c r="Z66" s="201"/>
-      <c r="AA66" s="91" t="s">
+      <c r="V66" s="184"/>
+      <c r="W66" s="184"/>
+      <c r="X66" s="184"/>
+      <c r="Y66" s="184"/>
+      <c r="Z66" s="185"/>
+      <c r="AA66" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="AB66" s="202"/>
-      <c r="AC66" s="202"/>
-      <c r="AD66" s="202"/>
-      <c r="AE66" s="202"/>
-      <c r="AF66" s="202"/>
-      <c r="AG66" s="202"/>
-      <c r="AH66" s="202"/>
-      <c r="AI66" s="202"/>
-      <c r="AJ66" s="202"/>
-      <c r="AK66" s="202"/>
-      <c r="AL66" s="202"/>
-      <c r="AM66" s="202"/>
-      <c r="AN66" s="202"/>
-      <c r="AO66" s="202"/>
-      <c r="AP66" s="202"/>
-      <c r="AQ66" s="202"/>
+      <c r="AB66" s="186"/>
+      <c r="AC66" s="186"/>
+      <c r="AD66" s="186"/>
+      <c r="AE66" s="186"/>
+      <c r="AF66" s="186"/>
+      <c r="AG66" s="186"/>
+      <c r="AH66" s="186"/>
+      <c r="AI66" s="186"/>
+      <c r="AJ66" s="186"/>
+      <c r="AK66" s="186"/>
+      <c r="AL66" s="186"/>
+      <c r="AM66" s="186"/>
+      <c r="AN66" s="186"/>
+      <c r="AO66" s="186"/>
+      <c r="AP66" s="186"/>
+      <c r="AQ66" s="186"/>
       <c r="AR66" s="81" t="s">
         <v>98</v>
       </c>
@@ -41977,7 +41981,7 @@
       <c r="AX66" s="80" t="s">
         <v>329</v>
       </c>
-      <c r="AY66" s="203" t="s">
+      <c r="AY66" s="82" t="s">
         <v>332</v>
       </c>
       <c r="AZ66" s="47" t="s">
@@ -41985,68 +41989,68 @@
       </c>
     </row>
     <row r="67" spans="2:52" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="87" t="s">
+      <c r="B67" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="82"/>
-      <c r="D67" s="83" t="s">
+      <c r="C67" s="92"/>
+      <c r="D67" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E67" s="82"/>
-      <c r="F67" s="83" t="s">
+      <c r="E67" s="92"/>
+      <c r="F67" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G67" s="82"/>
-      <c r="H67" s="197" t="s">
+      <c r="G67" s="92"/>
+      <c r="H67" s="181" t="s">
         <v>257</v>
       </c>
-      <c r="I67" s="198"/>
-      <c r="J67" s="199" t="s">
+      <c r="I67" s="182"/>
+      <c r="J67" s="183" t="s">
         <v>269</v>
       </c>
-      <c r="K67" s="82"/>
-      <c r="L67" s="82"/>
-      <c r="M67" s="82">
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="92">
         <v>1</v>
       </c>
-      <c r="N67" s="82"/>
-      <c r="O67" s="82"/>
-      <c r="P67" s="82">
+      <c r="N67" s="92"/>
+      <c r="O67" s="92"/>
+      <c r="P67" s="92">
         <v>1</v>
       </c>
-      <c r="Q67" s="82"/>
-      <c r="R67" s="82"/>
-      <c r="S67" s="82">
+      <c r="Q67" s="92"/>
+      <c r="R67" s="92"/>
+      <c r="S67" s="92">
         <v>3</v>
       </c>
-      <c r="T67" s="82"/>
-      <c r="U67" s="197" t="s">
+      <c r="T67" s="92"/>
+      <c r="U67" s="181" t="s">
         <v>254</v>
       </c>
-      <c r="V67" s="200"/>
-      <c r="W67" s="200"/>
-      <c r="X67" s="200"/>
-      <c r="Y67" s="200"/>
-      <c r="Z67" s="201"/>
-      <c r="AA67" s="91" t="s">
+      <c r="V67" s="184"/>
+      <c r="W67" s="184"/>
+      <c r="X67" s="184"/>
+      <c r="Y67" s="184"/>
+      <c r="Z67" s="185"/>
+      <c r="AA67" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="AB67" s="202"/>
-      <c r="AC67" s="202"/>
-      <c r="AD67" s="202"/>
-      <c r="AE67" s="202"/>
-      <c r="AF67" s="202"/>
-      <c r="AG67" s="202"/>
-      <c r="AH67" s="202"/>
-      <c r="AI67" s="202"/>
-      <c r="AJ67" s="202"/>
-      <c r="AK67" s="202"/>
-      <c r="AL67" s="202"/>
-      <c r="AM67" s="202"/>
-      <c r="AN67" s="202"/>
-      <c r="AO67" s="202"/>
-      <c r="AP67" s="202"/>
-      <c r="AQ67" s="202"/>
+      <c r="AB67" s="186"/>
+      <c r="AC67" s="186"/>
+      <c r="AD67" s="186"/>
+      <c r="AE67" s="186"/>
+      <c r="AF67" s="186"/>
+      <c r="AG67" s="186"/>
+      <c r="AH67" s="186"/>
+      <c r="AI67" s="186"/>
+      <c r="AJ67" s="186"/>
+      <c r="AK67" s="186"/>
+      <c r="AL67" s="186"/>
+      <c r="AM67" s="186"/>
+      <c r="AN67" s="186"/>
+      <c r="AO67" s="186"/>
+      <c r="AP67" s="186"/>
+      <c r="AQ67" s="186"/>
       <c r="AR67" s="81" t="s">
         <v>98</v>
       </c>
@@ -42068,7 +42072,7 @@
       <c r="AX67" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="AY67" s="203" t="s">
+      <c r="AY67" s="82" t="s">
         <v>334</v>
       </c>
       <c r="AZ67" s="47" t="s">
@@ -42889,25 +42893,25 @@
       <c r="AQ89" s="5"/>
     </row>
     <row r="90" spans="2:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="180" t="s">
+      <c r="B90" s="203" t="s">
         <v>127</v>
       </c>
-      <c r="C90" s="93"/>
-      <c r="D90" s="93"/>
-      <c r="E90" s="93"/>
-      <c r="F90" s="93"/>
-      <c r="G90" s="93"/>
-      <c r="H90" s="93"/>
-      <c r="I90" s="93"/>
-      <c r="J90" s="93"/>
-      <c r="K90" s="93"/>
-      <c r="L90" s="93"/>
-      <c r="M90" s="93"/>
-      <c r="N90" s="93"/>
-      <c r="O90" s="93"/>
-      <c r="P90" s="93"/>
-      <c r="Q90" s="93"/>
-      <c r="R90" s="93"/>
+      <c r="C90" s="175"/>
+      <c r="D90" s="175"/>
+      <c r="E90" s="175"/>
+      <c r="F90" s="175"/>
+      <c r="G90" s="175"/>
+      <c r="H90" s="175"/>
+      <c r="I90" s="175"/>
+      <c r="J90" s="175"/>
+      <c r="K90" s="175"/>
+      <c r="L90" s="175"/>
+      <c r="M90" s="175"/>
+      <c r="N90" s="175"/>
+      <c r="O90" s="175"/>
+      <c r="P90" s="175"/>
+      <c r="Q90" s="175"/>
+      <c r="R90" s="175"/>
       <c r="AB90" s="10" t="s">
         <v>25</v>
       </c>
@@ -42940,18 +42944,18 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
-      <c r="H92" s="94"/>
-      <c r="I92" s="94"/>
-      <c r="J92" s="94"/>
-      <c r="K92" s="94"/>
-      <c r="L92" s="94"/>
-      <c r="M92" s="94"/>
-      <c r="N92" s="94"/>
-      <c r="O92" s="94"/>
-      <c r="P92" s="94"/>
-      <c r="Q92" s="94"/>
-      <c r="R92" s="94"/>
-      <c r="S92" s="94"/>
+      <c r="H92" s="176"/>
+      <c r="I92" s="176"/>
+      <c r="J92" s="176"/>
+      <c r="K92" s="176"/>
+      <c r="L92" s="176"/>
+      <c r="M92" s="176"/>
+      <c r="N92" s="176"/>
+      <c r="O92" s="176"/>
+      <c r="P92" s="176"/>
+      <c r="Q92" s="176"/>
+      <c r="R92" s="176"/>
+      <c r="S92" s="176"/>
       <c r="AM92" t="s">
         <v>84</v>
       </c>
@@ -43002,15 +43006,281 @@
     </row>
   </sheetData>
   <mergeCells count="308">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:T67"/>
-    <mergeCell ref="U67:Z67"/>
+    <mergeCell ref="AA52:AQ52"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="U65:Z65"/>
+    <mergeCell ref="AA65:AQ65"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:Z52"/>
+    <mergeCell ref="AA64:AQ64"/>
+    <mergeCell ref="AA62:AQ62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="AA50:AQ50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:Z51"/>
+    <mergeCell ref="AA51:AQ51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:Z50"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:Z48"/>
+    <mergeCell ref="AA48:AQ48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:Z49"/>
+    <mergeCell ref="AA49:AQ49"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="AA66:AQ66"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="U64:Z64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="U66:Z66"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="U63:Z63"/>
+    <mergeCell ref="AA63:AQ63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="U62:Z62"/>
+    <mergeCell ref="AA60:AQ60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="U61:Z61"/>
+    <mergeCell ref="AA61:AQ61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:Z60"/>
+    <mergeCell ref="AA58:AQ58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="U59:Z59"/>
+    <mergeCell ref="AA59:AQ59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:Z58"/>
+    <mergeCell ref="AA56:AQ56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:Z57"/>
+    <mergeCell ref="AA57:AQ57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="U56:Z56"/>
+    <mergeCell ref="AA54:AQ54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="U55:Z55"/>
+    <mergeCell ref="AA55:AQ55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="U54:Z54"/>
+    <mergeCell ref="U46:Z46"/>
+    <mergeCell ref="AA46:AQ46"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:Z53"/>
+    <mergeCell ref="AA53:AQ53"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:Z47"/>
+    <mergeCell ref="AA47:AQ47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:Z44"/>
+    <mergeCell ref="AA44:AQ44"/>
+    <mergeCell ref="B90:R90"/>
+    <mergeCell ref="H92:S92"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:Z45"/>
+    <mergeCell ref="AA45:AQ45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:AQ27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:AQ28"/>
+    <mergeCell ref="AF30:AH30"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:AQ24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:AQ25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:AQ26"/>
+    <mergeCell ref="M10:AG10"/>
+    <mergeCell ref="AH10:AQ10"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:AQ17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:AQ18"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:AQ23"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:AG13"/>
+    <mergeCell ref="AH13:AQ13"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:AQ16"/>
     <mergeCell ref="AA67:AQ67"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="J39:L39"/>
@@ -43035,285 +43305,19 @@
     <mergeCell ref="AH9:AQ9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:AG10"/>
-    <mergeCell ref="AH10:AQ10"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:AQ17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:AQ18"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:AQ23"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:AG13"/>
-    <mergeCell ref="AH13:AQ13"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:AQ16"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:AQ27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:AQ28"/>
-    <mergeCell ref="AF30:AH30"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:AQ24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:AQ25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:AQ26"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:Z44"/>
-    <mergeCell ref="AA44:AQ44"/>
-    <mergeCell ref="B90:R90"/>
-    <mergeCell ref="H92:S92"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:Z45"/>
-    <mergeCell ref="AA45:AQ45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:Z46"/>
-    <mergeCell ref="AA46:AQ46"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:Z53"/>
-    <mergeCell ref="AA53:AQ53"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:Z47"/>
-    <mergeCell ref="AA47:AQ47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="AA54:AQ54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="U55:Z55"/>
-    <mergeCell ref="AA55:AQ55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="U54:Z54"/>
-    <mergeCell ref="AA56:AQ56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="U57:Z57"/>
-    <mergeCell ref="AA57:AQ57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="U56:Z56"/>
-    <mergeCell ref="AA58:AQ58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="U59:Z59"/>
-    <mergeCell ref="AA59:AQ59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="U58:Z58"/>
-    <mergeCell ref="AA60:AQ60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="S61:T61"/>
-    <mergeCell ref="U61:Z61"/>
-    <mergeCell ref="AA61:AQ61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:Z60"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="U63:Z63"/>
-    <mergeCell ref="AA63:AQ63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="U62:Z62"/>
-    <mergeCell ref="AA66:AQ66"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="U64:Z64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="U66:Z66"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:Z48"/>
-    <mergeCell ref="AA48:AQ48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:Z49"/>
-    <mergeCell ref="AA49:AQ49"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="AA50:AQ50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:Z51"/>
-    <mergeCell ref="AA51:AQ51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:Z50"/>
-    <mergeCell ref="AA52:AQ52"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="U65:Z65"/>
-    <mergeCell ref="AA65:AQ65"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:Z52"/>
-    <mergeCell ref="AA64:AQ64"/>
-    <mergeCell ref="AA62:AQ62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="U67:Z67"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS45:AS67" xr:uid="{66E2BCA1-8C6B-4386-BE88-5293B86F6A1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS45:AS67">
       <formula1>"Crítico,Mayor,Menor"</formula1>
     </dataValidation>
   </dataValidations>
@@ -43327,37 +43331,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C1CA7DC3-9550-43C9-97CC-337EA8D4E495}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$62:$A$67</xm:f>
           </x14:formula1>
           <xm:sqref>AZ45:AZ67</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{350E596E-DE6C-42F1-A8A2-E6A3D7A44CFE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$42:$A$51</xm:f>
           </x14:formula1>
           <xm:sqref>S45:T67</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD093146-5794-41C9-88DD-426EB808CDB5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$33:$A$37</xm:f>
           </x14:formula1>
           <xm:sqref>P45:R67</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E30CEBDE-CC1B-4007-B7AB-BDF35994A9FD}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$24:$A$29</xm:f>
           </x14:formula1>
           <xm:sqref>M45:O67</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4ECB22D-E83C-4BE2-8C29-C4C7479DE398}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$97:$A$98</xm:f>
           </x14:formula1>
           <xm:sqref>AR45:AR67</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3F685CEA-ACAD-4877-A5A3-3EA8D6DC62BC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$70:$A$86</xm:f>
           </x14:formula1>
@@ -43370,7 +43374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D415610-732A-4498-A7E8-16EB6F11B9D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43806,7 +43810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q98"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
@@ -44556,10 +44560,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20" xr:uid="{4F59F35E-31DA-43E2-BC2B-6FC95F325407}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20">
       <formula1>Metodos_Pruebas</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:G20 K20:L20 Q20" xr:uid="{CD101AF3-0A88-4B56-92B6-A8A70004106A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:G20 K20:L20 Q20">
       <formula1>Tecnicas_Pruebas</formula1>
     </dataValidation>
   </dataValidations>
@@ -44568,15 +44572,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44841,21 +44842,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3417CADE-5092-43B2-B113-7A7B92C601DB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F43F8E13-BFB7-4F04-949A-CC463DD69229}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44880,9 +44881,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F43F8E13-BFB7-4F04-949A-CC463DD69229}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3417CADE-5092-43B2-B113-7A7B92C601DB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>